--- a/Consumo_Cultural_en_Cuba.xlsx
+++ b/Consumo_Cultural_en_Cuba.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="859">
   <si>
     <t xml:space="preserve">Marca temporal</t>
   </si>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Rock, Hip-Hop, Blues</t>
   </si>
   <si>
-    <t xml:space="preserve">Maneskin</t>
+    <t xml:space="preserve">Måneskin </t>
   </si>
   <si>
     <t xml:space="preserve">Acción, Comedia, Drama, Misterio</t>
@@ -367,7 +367,7 @@
     <t xml:space="preserve">Hip-Hop, Funk, R&amp;B</t>
   </si>
   <si>
-    <t xml:space="preserve">no tengo, pero amo mucho Christopher Simpson y Elevación </t>
+    <t xml:space="preserve">Christopher Simpson , Elevación </t>
   </si>
   <si>
     <t xml:space="preserve">Acción, Aventura, Comedia, Drama</t>
@@ -412,9 +412,6 @@
     <t xml:space="preserve">Rock, Hip-Hop, Jazz, Kpop</t>
   </si>
   <si>
-    <t xml:space="preserve">Måneskin </t>
-  </si>
-  <si>
     <t xml:space="preserve">Snaptube</t>
   </si>
   <si>
@@ -463,13 +460,13 @@
     <t xml:space="preserve">Pop, trova</t>
   </si>
   <si>
-    <t xml:space="preserve">Rocio Jurado y esa onda</t>
+    <t xml:space="preserve">Rocio Jurado</t>
   </si>
   <si>
     <t xml:space="preserve">Lo descargo por universidad de las villas</t>
   </si>
   <si>
-    <t xml:space="preserve">Varias, pero bueno pretty baby, la dama de las camelias</t>
+    <t xml:space="preserve">pretty baby, la dama de las camelias</t>
   </si>
   <si>
     <t xml:space="preserve">Stefan Zweig </t>
@@ -490,7 +487,7 @@
     <t xml:space="preserve">Terror, Misterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Coraline and the secret dolor </t>
+    <t xml:space="preserve">Coraline</t>
   </si>
   <si>
     <t xml:space="preserve">Johana Marcus </t>
@@ -529,9 +526,6 @@
     <t xml:space="preserve">Shawn Mendez</t>
   </si>
   <si>
-    <t xml:space="preserve">Fight club</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descargas de google</t>
   </si>
   <si>
@@ -544,7 +538,7 @@
     <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Suspenso, Misterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Los juegos del hambre </t>
+    <t xml:space="preserve">The Hunger Games</t>
   </si>
   <si>
     <t xml:space="preserve">Conan Doyle</t>
@@ -577,9 +571,6 @@
     <t xml:space="preserve">Rock, Hip-Hop, Jazz, EDM, Experimental, Blues, Funk</t>
   </si>
   <si>
-    <t xml:space="preserve">Ninguno</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acción, Aventura, Comedia</t>
   </si>
   <si>
@@ -601,27 +592,27 @@
     <t xml:space="preserve">Fantasía</t>
   </si>
   <si>
+    <t xml:space="preserve">Rock, Reggaetón, Blues, Funk, Reparto, Pop, Regional mexicano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Suspenso, Misterio, Horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos rubias de pelo en pecho , Black panther </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Padura</t>
+  </si>
+  <si>
     <t xml:space="preserve">No tengo</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Reggaetón, Blues, Funk, Reparto, Pop, Regional mexicano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melendi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Suspenso, Misterio, Horror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos rubias de pelo en pecho y Black panther </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Padura</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hip-Hop, Pop, Alternativa</t>
   </si>
   <si>
@@ -631,7 +622,7 @@
     <t xml:space="preserve">Acción, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve">Interstellar</t>
+    <t xml:space="preserve">Interestelar</t>
   </si>
   <si>
     <t xml:space="preserve">Fantasía, Literatura historíca</t>
@@ -694,12 +685,15 @@
     <t xml:space="preserve">Flora Fong </t>
   </si>
   <si>
-    <t xml:space="preserve">Taylor Swift y Olivia Rodrigo </t>
+    <t xml:space="preserve">Taylor Swift , Olivia Rodrigo </t>
   </si>
   <si>
     <t xml:space="preserve">A todos los chicos de los que me enamoré </t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">UH </t>
   </si>
   <si>
@@ -847,7 +841,7 @@
     <t xml:space="preserve">Comedia, Drama, Terror, Misterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Piratas del Caribe I</t>
+    <t xml:space="preserve">Piratas del Caribe </t>
   </si>
   <si>
     <t xml:space="preserve">Agatha Christie</t>
@@ -865,7 +859,7 @@
     <t xml:space="preserve">Fantasía, Romance, Literatura historíca</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarah J Maas, Megan Maxwell, Sarah McLean</t>
+    <t xml:space="preserve">Sarah J Maas , Megan Maxwell , Sarah McLean</t>
   </si>
   <si>
     <t xml:space="preserve">Rock, Reggaetón, Pop, Jazz</t>
@@ -883,9 +877,6 @@
     <t xml:space="preserve">Ficción, Poesía, Fantasía, Suspenso, Literatura historíca</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel garcia maruqez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Picasso </t>
   </si>
   <si>
@@ -898,18 +889,12 @@
     <t xml:space="preserve">Descargo todo pirata 🦜</t>
   </si>
   <si>
-    <t xml:space="preserve">La culpa es del bloqueo 😕</t>
-  </si>
-  <si>
     <t xml:space="preserve">Literatura esotérica</t>
   </si>
   <si>
     <t xml:space="preserve">Como los encuentre</t>
   </si>
   <si>
-    <t xml:space="preserve">No puedo</t>
-  </si>
-  <si>
     <t xml:space="preserve">:\</t>
   </si>
   <si>
@@ -961,7 +946,7 @@
     <t xml:space="preserve">Rock, Hip-Hop, Trap, Metal</t>
   </si>
   <si>
-    <t xml:space="preserve">Duki y Lorna Shore</t>
+    <t xml:space="preserve">Duki , Lorna Shore</t>
   </si>
   <si>
     <t xml:space="preserve">Drive</t>
@@ -985,7 +970,7 @@
     <t xml:space="preserve">Literatura historíca, Divulgación científica</t>
   </si>
   <si>
-    <t xml:space="preserve">Ariana Grande y BTS </t>
+    <t xml:space="preserve">Ariana Grande , BTS </t>
   </si>
   <si>
     <t xml:space="preserve">SnapTube </t>
@@ -1003,9 +988,6 @@
     <t xml:space="preserve">Acción, Aventura, Comedia, Misterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Coraline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ficción, Fantasía, Misterio, Romance</t>
   </si>
   <si>
@@ -1018,7 +1000,7 @@
     <t xml:space="preserve">Hip-Hop, Pop, Jazz, Blues</t>
   </si>
   <si>
-    <t xml:space="preserve">Ed Sheeran/Imagine Dragons </t>
+    <t xml:space="preserve">Ed Sheeran , Imagine Dragons </t>
   </si>
   <si>
     <t xml:space="preserve">VidMate</t>
@@ -1054,9 +1036,6 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Varios</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terror, Suspenso, Misterio</t>
   </si>
   <si>
@@ -1078,9 +1057,6 @@
     <t xml:space="preserve">Acción, Terror, Suspenso, Misterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Interestellar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Misterio, Suspenso, Romance, Realismo magico</t>
   </si>
   <si>
@@ -1141,7 +1117,7 @@
     <t xml:space="preserve">ISDI</t>
   </si>
   <si>
-    <t xml:space="preserve">post malone </t>
+    <t xml:space="preserve">Post Malone </t>
   </si>
   <si>
     <t xml:space="preserve">Comedia, Terror, Musical</t>
@@ -1153,7 +1129,7 @@
     <t xml:space="preserve">Acción, Comedia, Terror, Superheroes</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucy de Scarlett Johanson y Morgan Freeman</t>
+    <t xml:space="preserve">Lucy </t>
   </si>
   <si>
     <t xml:space="preserve">Ficción, Fantasía, Comedia</t>
@@ -1165,7 +1141,7 @@
     <t xml:space="preserve">Rock, Pop, Trova</t>
   </si>
   <si>
-    <t xml:space="preserve">The beatles</t>
+    <t xml:space="preserve">The Beatles</t>
   </si>
   <si>
     <t xml:space="preserve">Dan brown</t>
@@ -1183,7 +1159,7 @@
     <t xml:space="preserve">Aventura, Comedia, Suspenso, Musical, Misterio, </t>
   </si>
   <si>
-    <t xml:space="preserve">Wonder woman 1 y 2</t>
+    <t xml:space="preserve">Wonder woman</t>
   </si>
   <si>
     <t xml:space="preserve">Miguel angel </t>
@@ -1249,9 +1225,6 @@
     <t xml:space="preserve">Ficción, Fantasía, Misterio, Literatura historíca, Divulgación científica, Comedia</t>
   </si>
   <si>
-    <t xml:space="preserve">No sabría definir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bukowski </t>
   </si>
   <si>
@@ -1294,13 +1267,10 @@
     <t xml:space="preserve">HBO</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hunger Games</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Romance, Policíaco </t>
   </si>
   <si>
-    <t xml:space="preserve">Colleen Hoover, Agatha Christie </t>
+    <t xml:space="preserve">Colleen Hoover ,  Agatha Christie </t>
   </si>
   <si>
     <t xml:space="preserve">Claude Monet </t>
@@ -1360,9 +1330,6 @@
     <t xml:space="preserve">Copiarlo dónde copian </t>
   </si>
   <si>
-    <t xml:space="preserve">No tengo la verdad </t>
-  </si>
-  <si>
     <t xml:space="preserve">Moda</t>
   </si>
   <si>
@@ -1387,7 +1354,7 @@
     <t xml:space="preserve">Ciencia Ficción</t>
   </si>
   <si>
-    <t xml:space="preserve">Avatar (la primera parte)</t>
+    <t xml:space="preserve">Avatar </t>
   </si>
   <si>
     <t xml:space="preserve">Fantasía, Suspenso</t>
@@ -1426,9 +1393,6 @@
     <t xml:space="preserve">Aventura, Drama, Terror, Suspenso, Científico</t>
   </si>
   <si>
-    <t xml:space="preserve">Harry Potter La saga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ficción, Poesía, Fantasía, Divulgación científica</t>
   </si>
   <si>
@@ -1444,1051 +1408,1012 @@
     <t xml:space="preserve">Rock, Reggaetón, Pop, Escucho de todo, siempre que me haga conectar con la música. El género no es tan importante para mí, sino lo que transmita la canción..</t>
   </si>
   <si>
+    <t xml:space="preserve">Drama, Suspenso, Musical, Históricos, biográficos, thriller psicológico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molino Rojo, El extraño caso de Benjamin Button, Múltiple o El Gran Show man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tengo, pero me gusta mucho la obra de Dalí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop, kpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orgullo y Prejuicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiera Cass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Misterio, Ciencia Ficción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misterio, Divulgación científica, Literatura de Autoayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libros digitales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Hip-Hop, Pop, Jazz, Blues, Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed Sheeran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Ruiz Zafón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidad y Finanzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie pop e Indie rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El silencio de los corderos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Hip-Hop, Trap, Bachata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romeo Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Terror, Ciencia Ficción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific rim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Jazz, EDM, Experimental, Blues, Rumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Drama, Suspenso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vita è bella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelangelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Trap, Trova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Musical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misterio, Romance, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura, Comedia, Drama, Suspenso, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry potter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasía, Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane austen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Drama, Terror, Suspenso, Musical, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Literatura historíca, Divulgación científica, Literatura de Autoayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Pop, Experimental, Rap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura, Comedia, Musical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrevista con el Vampiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George R.R. Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billie Eilish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Drama, Terror, Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 2 metros de tí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Misterio, Suspenso, Romance, Comedia, Literatura de Autoayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicent van Gogh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvio Rodríguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Suspenso, Divulgación científica, Policiacos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Art mobile app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Ciencias Pedagógicas Enrique José Varona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Hip-Hop, Trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanye West ,  Lil Uzi Vert , Juice Wrld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Terror, Suspenso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misterio, Suspenso, Literatura historíca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Jacobo Rousseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecánica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Pop, Jazz, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Warning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Wick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo q me pasan los amigos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Angelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página de visuales.uclv.cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Poesía, Fantasía, Romance, Literatura de Autoayuda, De cultura general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página web librospdfgratismundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisabet Benavent, Alice Kellen, Ariana Godoy, Colleen Hover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Jazz, Trova, EDM, Experimental, Blues, Rumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cine de autor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Literatura historíca, Periodismo literario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Jazz, Funk, Rumba, Alternative y R&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childish Gambino , Hozier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Comedia, Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visuales uclv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDFs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Wilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beksiński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Reparto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buena Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Suspenso, Ficción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray Bradbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra Delgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Y dónde están las rubias?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Pop, Jazz, Blues, Funk, Rumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Drama, Suspenso, Musical, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamma Mia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Literatura de Autoayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risto Mejide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frida Khalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Terror, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Pop, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Swift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ágatha Christie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Pop, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Ciencia ficción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anastacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah J Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melendi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Avengers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Misterio, Literatura historíca, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Gogh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Hip-Hop, Trap, Jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.tangana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fantastic mr fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Misterio, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemingway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kandinsky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Corridos, Rap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancerbero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paginas de internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.L Stine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Hip-Hop, Pop, Jazz, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia Keya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Comedia, Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A star is born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvia Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Pop, Trap, Trova, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguno hasta ahora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stray kids, Falling in reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rápidos y Furiosos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colleen Hoover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me before you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misterio, Suspenso, Romance, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no tengo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no tengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Jazz, Blues, Funk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Måneskin , Queen ,  Amy Winehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Drama, Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vida es bella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasía, Distopía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack London, Cassandra Clare, Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geográfia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Bunny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A todos los chicos de los que me enamore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejo Carpentier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Pop, Clásica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Misterio, Ficción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Divulgación científica, Ciencia Ficción, Aventuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicología </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, indie, alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falling in Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama, Suspenso, Musical, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 days of summer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Súperman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No consumo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakespeare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van gogh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facultad de Educación Infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Drama, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradise Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvia Plath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da vinci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lil peep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Comedia, Suspenso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Picasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calixto García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Terror, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres Metros sobre el cielo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Van Gog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 mentros sobre el cielo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura clásica inglesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna told</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lana del Rey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutter Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Cortázar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Trova, Música japo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Misterio, Fantasía y Ciencia Ficción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitios piratas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La trilogía del Señor de los Anillos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.P Lovecraft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip-Hop, Trova, EDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura, Terror, Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Pop, Trova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Milanés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Literatura historíca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Trap, Blues, Rumba, Romántico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS ,  Melendi ,  Minho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Romance, ficción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Romance, Literatura historíca, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargo libros por Google y en Wattpad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo demasiados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Romance, Comedia romántica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Misterio, Romance, Comedia, Comedia romántica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Drama, Terror, Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destino Final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasía, Misterio, Suspenso, Divulgación científica, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop, Jazz, Trova, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The silence of the lambs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Cohelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciencias Sociales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariana Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia romántica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facultad de Química y Farmacia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Jazz, Trova, Experimental, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura, Drama, Terror, Suspenso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kynodontas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Poesía, Fantasía, Suspenso, Literatura historíca, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene Solá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilia Repin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Reggaetón, Hip-Hop, Pop, Bachata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Arjona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdiendo el norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Poesía, Misterio, Romance, Literatura de Autoayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Swift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Drama, Romance y Fantasía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epub y PDF en mi teléfono y laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depende del género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Pop, Jazz, Trova, Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine Dragons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedia, Drama, Terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malcom ando Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Divulgación científica, Comedia, Literatura de Autoayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Brandon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química y farmacia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me gusta leer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química y farmacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggaetón, Corridos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los tres chiflados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspenso, Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neruda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Davinci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz, Musica Indie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac DeMarco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemarys Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude Monet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Jenkins Reid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahí sí te fallé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería Química ️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Smith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Musical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que me graba mi novio🥰🍆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio César </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciencias Médicas Cienfuegos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facultad de Medicina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Conjuring 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesía, Misterio, Suspenso, Romance, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan Maxwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz, Trova, Blues, Funk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelvis Ochoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copia de amigos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habana Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabell Allende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop, Jazz, Blues, ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La trilogía de Dan Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Comedia, Drama, Terror, Musical, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Jazz, Blues, Folk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamelot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Poesía, Fantasía, Literatura historíca, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac Asimov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rembrandt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, EDM, Experimental, J-pop, J-rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción, Aventura, Comedia, Misterio, Ciencia Ficción, Fantasía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO3, Anna's Achive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Sanderson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter, Artstation, Pixv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No puedo escoger solo uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derecho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz, Salsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Hip-Hop, Jazz, Trova, Blues, Rumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evanecens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara j mas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Dalí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, Jazz, Experimental, Dark wave, post punk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerwolf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama, Terror, Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girl Interrupted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Poesía, Romance, Literatura historíca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Warhol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Ciencias Pedagógicas Enrique José Varona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facultad Ciencias de la Educación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura, Drama, Suspenso, Musical, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little woman (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop, Folk, indie, alt rock, kpop, indie latino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agnès Obel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Fantasía, Romance, Literatura historíca, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remedios Varo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficción, Poesía, Fantasía, Misterio, Suspenso, Romance, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassandra Clare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenged Sevenfold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglorious Basterds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspenso, Literatura historíca, Divulgación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Follet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Pop, R&amp;B, Lo-Fi, Alternativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joji, Cigarretes after sex, Artic Monkeys, Mitski, Mac DeMarco, Bon Jovi, ABBA, QUEEN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locales de grabación.</t>
+  </si>
+  <si>
     <t xml:space="preserve">No tengo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Drama, Suspenso, Musical, Históricos, biográficos, thriller psicológico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No tengo película favorita. Pero me encantan Molino Rojo, El extraño caso de Benjamin Button, Múltiple o El Gran Show man.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No tengo, pero me gusta mucho la obra de Dalí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, kpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orgullo y Prejuicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiera Cass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Misterio, Ciencia Ficción </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misterio, Divulgación científica, Literatura de Autoayuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libros digitales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Hip-Hop, Pop, Jazz, Blues, Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed Sheeran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Ruiz Zafón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contabilidad y Finanzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indie pop e Indie rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El silencio de los corderos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Hip-Hop, Trap, Bachata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romeo Santos ( Aventura)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Terror, Ciencia Ficción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacific rim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Jazz, EDM, Experimental, Blues, Rumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Drama, Suspenso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La vita è bella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michelangelo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Trap, Trova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Musical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misterio, Romance, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventura, Comedia, Drama, Suspenso, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry potter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasía, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane austen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Drama, Terror, Suspenso, Musical, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Literatura historíca, Divulgación científica, Literatura de Autoayuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Pop, Experimental, Rap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventura, Comedia, Musical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrevista con el Vampiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George R.R. Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCOM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billie Eilish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Drama, Terror, Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 2 metros de tí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Misterio, Suspenso, Romance, Comedia, Literatura de Autoayuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicent van Gogh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvio Rodríguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saga Harry Potter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Suspenso, Divulgación científica, Policiacos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Art mobile app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Ciencias Pedagógicas Enrique José Varona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Hip-Hop, Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanye West, Lil Uzi Vert, Juice Wrld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Terror, Suspenso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misterio, Suspenso, Literatura historíca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Jacobo Rousseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecánica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Pop, Jazz, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Warning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jon Wick </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo q me pasan los amigos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Angelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Página de visuales.uclv.cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Poesía, Fantasía, Romance, Literatura de Autoayuda, De cultura general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Página web librospdfgratismundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elisabet Benavent, Alice Kellen, Ariana Godoy, Colleen Hover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Física </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Jazz, Trova, EDM, Experimental, Blues, Rumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cine de autor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Literatura historíca, Periodismo literario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Readera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitectura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Jazz, Funk, Rumba, Alternative y R&amp;B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Childish Gambino y Hozier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Comedia, Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visuales uclv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Wilde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beksiński</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Reparto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buena Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Suspenso, Ficción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ray Bradbury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra Delgado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Y dónde están las rubias?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Pop, Jazz, Blues, Funk, Rumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Drama, Suspenso, Musical, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamma Mia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Literatura de Autoayuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risto Mejide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frida Khalo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Terror, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Pop, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor Swift </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piratas del Caribe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ágatha Christie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Pop, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Ciencia ficción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anastacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarah J Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melendi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Avengers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Misterio, Literatura historíca, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Gogh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Hip-Hop, Trap, Jazz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.tangana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fantastic mr fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Misterio, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemingway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kandinsky </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Corridos, Rap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancerbero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paginas de internet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.L Stine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Hip-Hop, Pop, Jazz, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alicia Keya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Comedia, Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visuales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A star is born</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sylvia Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Pop, Trap, Trova, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the neighborhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninguno hasta ahora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Angel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stray kids, Falling in reverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rápidos y Furiosos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colleen Hoover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William Turner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me before you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misterio, Suspenso, Romance, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no tengo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no tengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Jazz, Blues, Funk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Måneskin, Queen, Amy Winehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Drama, Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La vida es bella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasía, Distopía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack London, Cassandra Clare, Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geográfia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad Bunny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A todos los chicos de los que me enamore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejo Carpentier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Pop, Clásica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Misterio, Ficción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Divulgación científica, Ciencia Ficción, Aventuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psicología </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, indie, alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falling in Reverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama, Suspenso, Musical, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500 days of summer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Austin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Súperman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No consumo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shakespeare </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van gogh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facultad de Educación Infantil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Drama, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradise Hills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sylvia Plath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da vinci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lil peep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Comedia, Suspenso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Picasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calixto García</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Terror, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres Metros sobre el cielo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Van Gog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 mentros sobre el cielo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literatura clásica inglesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna told</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lana del Rey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shutter Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio Cortázar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Trova, Música japo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Misterio, Fantasía y Ciencia Ficción </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitios piratas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La trilogía del Señor de los Anillos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.P Lovecraft </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hip-Hop, Trova, EDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventura, Terror, Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saga de Harry Potter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Pop, Trova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Milanés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Literatura historíca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Trap, Blues, Rumba, Romántico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTS, Melendi, Minho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Romance, ficción </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me gustan muchas, no puedo elegir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Romance, Literatura historíca, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descargo libros por Google y en Wattpad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo demasiados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Romance, Comedia romántica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Misterio, Romance, Comedia, Comedia romántica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Drama, Terror, Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destino Final </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasía, Misterio, Suspenso, Divulgación científica, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, Jazz, Trova, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The silence of the lambs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Cohelo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciencias Sociales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariana Grande </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia romántica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facultad de Química y Farmacia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Jazz, Trova, Experimental, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventura, Drama, Terror, Suspenso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kynodontas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Poesía, Fantasía, Suspenso, Literatura historíca, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irene Solá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilia Repin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Reggaetón, Hip-Hop, Pop, Bachata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arjona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perdiendo el norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Poesía, Misterio, Romance, Literatura de Autoayuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor Swift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Drama, Romance y Fantasía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epub y PDF en mi teléfono y laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depende del género</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Pop, Jazz, Trova, Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagine Dragons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedia, Drama, Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malcom ando Marie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Divulgación científica, Comedia, Literatura de Autoayuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Brandon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química y farmacia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninguno en específico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gol (primera y segunda parte)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No me gusta leer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni idea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química y farmacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reggaetón, Corridos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Arjona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los tres chiflados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suspenso, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neruda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Davinci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazz, Musica Indie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mac DeMarco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosemarys Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claude Monet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No tengo, Ariana Grande si tengo que poner a alguien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor Jenkins Reid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahí sí te fallé </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería Química ️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Smith </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Terror, Musical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo que me graba mi novio🥰🍆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No sé aún </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio César </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciencias Médicas Cienfuegos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facultad de Medicina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lana Del Rey, Laura Pausini, Billie Eilish, The Neigborhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Conjuring 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poesía, Misterio, Suspenso, Romance, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megan Maxwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazz, Trova, Blues, Funk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelvis Ochoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copia de amigos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habana Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabell Allende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, Jazz, Blues, ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La trilogía de Dan Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Pop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Comedia, Drama, Terror, Musical, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Jazz, Blues, Folk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamelot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Poesía, Fantasía, Literatura historíca, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac Asimov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rembrandt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, EDM, Experimental, J-pop, J-rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No puedo escoger solo uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción, Aventura, Comedia, Misterio, Ciencia Ficción, Fantasía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar (James Cameron's)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO3, Anna's Achive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandon Sanderson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twitter, Artstation, Pixv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derecho </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazz, Salsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Hip-Hop, Jazz, Trova, Blues, Rumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evanecens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara j mas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvador Dalí </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, Jazz, Experimental, Dark wave, post punk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powerwolf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama, Terror, Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girl Interrupted </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Poesía, Romance, Literatura historíca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Warhol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Ciencias Pedagógicas Enrique José Varona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facultad Ciencias de la Educación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventura, Drama, Suspenso, Musical, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little woman (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Famca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, Folk, indie, alt rock, kpop, indie latino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agnès Obel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Fantasía, Romance, Literatura historíca, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remedios Varo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bas bunny grupo favorito: Morat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamá Mia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficción, Poesía, Fantasía, Misterio, Suspenso, Romance, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassandra Clare </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avenged Sevenfold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inglorious Basterds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suspenso, Literatura historíca, Divulgación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Follet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Pop, R&amp;B, Lo-Fi, Alternativa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joji, Cigarretes after sex, Artic Monkeys, Mitski, Mac DeMarco, Bon Jovi, ABBA, QUEEN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locales de grabación.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hip-Hop, Pop, Trova</t>
   </si>
   <si>
-    <t xml:space="preserve">Depende la época 😂 (ahora NF, Fito y Fitipaldis, Mr Kilombo, Hozier, Kpop en general, Benson Boone) </t>
+    <t xml:space="preserve"> Fito y Fitipaldis</t>
   </si>
   <si>
     <t xml:space="preserve">Captain Fantastic</t>
@@ -2563,9 +2488,6 @@
     <t xml:space="preserve">Comedia, Musical, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve">Mamma Mia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poesía, Fantasía, Romance, Comedia</t>
   </si>
   <si>
@@ -2587,7 +2509,7 @@
     <t xml:space="preserve">Hip-Hop, Pop, Blues</t>
   </si>
   <si>
-    <t xml:space="preserve">Billie Eilish/Kanye West 💋</t>
+    <t xml:space="preserve">Billie Eilish , Kanye West </t>
   </si>
   <si>
     <t xml:space="preserve">Black Swan </t>
@@ -2620,9 +2542,6 @@
     <t xml:space="preserve">Copia de películas entre amigos</t>
   </si>
   <si>
-    <t xml:space="preserve">(Imposible decidir por una)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bizarro </t>
   </si>
   <si>
@@ -2668,7 +2587,7 @@
     <t xml:space="preserve">Hip-Hop, Pop, Trova, Blues, Timba ¿Cómo no va a estar en la lista?</t>
   </si>
   <si>
-    <t xml:space="preserve">Silvio Rodríguez, Alexander Abreu y HP</t>
+    <t xml:space="preserve">Silvio Rodríguez , Alexander Abreu , HP</t>
   </si>
   <si>
     <t xml:space="preserve">Comedia, Drama, Suspenso, Musical, Las basadas en hechos reales, sean del género que sean.</t>
@@ -2798,12 +2717,12 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E148" activeCellId="0" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="118.75"/>
@@ -3652,10 +3571,10 @@
         <v>129</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>81</v>
@@ -3664,16 +3583,16 @@
         <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>29</v>
@@ -3690,40 +3609,40 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>29</v>
@@ -3732,7 +3651,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,19 +3662,19 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>24</v>
@@ -3764,10 +3683,10 @@
         <v>109</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>126</v>
@@ -3776,7 +3695,7 @@
         <v>38</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>29</v>
@@ -3785,7 +3704,7 @@
         <v>40</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,7 +3715,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>21</v>
@@ -3805,22 +3724,22 @@
         <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>118</v>
@@ -3829,7 +3748,7 @@
         <v>27</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>54</v>
@@ -3838,7 +3757,7 @@
         <v>30</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,40 +3768,40 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>29</v>
@@ -3891,7 +3810,7 @@
         <v>86</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,10 +3830,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>70</v>
@@ -3926,13 +3845,13 @@
         <v>49</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>29</v>
@@ -3958,22 +3877,22 @@
         <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>63</v>
@@ -3982,16 +3901,16 @@
         <v>24</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,7 +3921,7 @@
         <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>20</v>
@@ -4011,10 +3930,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>70</v>
@@ -4023,13 +3942,13 @@
         <v>75</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>38</v>
@@ -4049,7 +3968,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>20</v>
@@ -4058,32 +3977,28 @@
         <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>185</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
         <v>29</v>
       </c>
@@ -4091,7 +4006,7 @@
         <v>30</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,10 +4026,10 @@
         <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>24</v>
@@ -4126,17 +4041,15 @@
         <v>49</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
         <v>128</v>
       </c>
@@ -4178,7 +4091,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>20</v>
@@ -4187,31 +4100,31 @@
         <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>29</v>
@@ -4220,7 +4133,7 @@
         <v>86</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,28 +4153,28 @@
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,31 +4194,31 @@
         <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>29</v>
@@ -4314,7 +4227,7 @@
         <v>86</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>22</v>
@@ -4334,10 +4247,10 @@
         <v>66</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>24</v>
@@ -4346,13 +4259,13 @@
         <v>35</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,19 +4285,19 @@
         <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>24</v>
@@ -4410,16 +4323,16 @@
         <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>85</v>
@@ -4428,7 +4341,7 @@
         <v>49</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>85</v>
@@ -4443,7 +4356,7 @@
         <v>40</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,22 +4376,22 @@
         <v>19</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>26</v>
@@ -4487,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>54</v>
@@ -4504,7 +4417,7 @@
         <v>45480.4577252546</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>18</v>
@@ -4516,10 +4429,10 @@
         <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>24</v>
@@ -4531,16 +4444,16 @@
         <v>24</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>29</v>
@@ -4557,7 +4470,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>20</v>
@@ -4566,19 +4479,19 @@
         <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>29</v>
@@ -4607,19 +4520,19 @@
         <v>83</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4543,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>20</v>
@@ -4639,31 +4552,29 @@
         <v>58</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="M40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>29</v>
@@ -4672,7 +4583,7 @@
         <v>86</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,7 +4594,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>18</v>
@@ -4695,28 +4606,28 @@
         <v>59</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>29</v>
@@ -4725,7 +4636,7 @@
         <v>30</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,31 +4656,31 @@
         <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="J42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>54</v>
@@ -4786,7 +4697,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>19</v>
@@ -4795,10 +4706,10 @@
         <v>66</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>24</v>
@@ -4810,16 +4721,16 @@
         <v>35</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>54</v>
@@ -4845,13 +4756,13 @@
         <v>19</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>35</v>
@@ -4874,7 +4785,7 @@
         <v>45480.4650052662</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>90</v>
@@ -4886,31 +4797,31 @@
         <v>19</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>128</v>
@@ -4919,7 +4830,7 @@
         <v>30</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,7 +4841,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>19</v>
@@ -4939,31 +4850,31 @@
         <v>19</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="J46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="L46" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>29</v>
@@ -4972,7 +4883,7 @@
         <v>70</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,31 +4903,29 @@
         <v>66</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>128</v>
@@ -5025,7 +4934,7 @@
         <v>30</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,31 +4954,31 @@
         <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>29</v>
@@ -5078,7 +4987,7 @@
         <v>30</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,32 +5007,28 @@
         <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
         <v>29</v>
       </c>
@@ -5131,7 +5036,7 @@
         <v>30</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,22 +5056,22 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>72</v>
@@ -5175,7 +5080,7 @@
         <v>24</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>29</v>
@@ -5192,7 +5097,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>20</v>
@@ -5201,22 +5106,22 @@
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>24</v>
@@ -5227,10 +5132,10 @@
         <v>45480.4880751157</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>19</v>
@@ -5239,19 +5144,19 @@
         <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>24</v>
@@ -5263,7 +5168,7 @@
         <v>86</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,10 +5176,10 @@
         <v>45480.4881459607</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>19</v>
@@ -5283,25 +5188,25 @@
         <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>24</v>
@@ -5310,13 +5215,13 @@
         <v>53</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,22 +5241,22 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,22 +5276,22 @@
         <v>19</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>82</v>
@@ -5406,7 +5311,7 @@
         <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>19</v>
@@ -5415,22 +5320,22 @@
         <v>58</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>27</v>
@@ -5444,10 +5349,10 @@
         <v>45480.4931806597</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>21</v>
@@ -5456,31 +5361,31 @@
         <v>19</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>29</v>
@@ -5489,7 +5394,7 @@
         <v>86</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,10 +5402,10 @@
         <v>45480.4933693981</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>21</v>
@@ -5509,19 +5414,19 @@
         <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -5538,10 +5443,10 @@
         <v>45480.4946498264</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>23</v>
@@ -5552,23 +5457,21 @@
       <c r="F59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>344</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>24</v>
@@ -5580,7 +5483,7 @@
         <v>70</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,7 +5494,7 @@
         <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>20</v>
@@ -5600,28 +5503,28 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>54</v>
@@ -5630,7 +5533,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5638,10 +5541,10 @@
         <v>45480.4952953009</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>18</v>
@@ -5650,10 +5553,10 @@
         <v>19</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>70</v>
@@ -5665,16 +5568,16 @@
         <v>35</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>29</v>
@@ -5683,7 +5586,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,10 +5594,10 @@
         <v>45480.5128145718</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>25</v>
@@ -5703,31 +5606,31 @@
         <v>19</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>118</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>54</v>
@@ -5736,7 +5639,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,34 +5650,34 @@
         <v>17</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>18</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>27</v>
@@ -5794,7 +5697,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="3" t="n">
         <v>21</v>
@@ -5803,31 +5706,31 @@
         <v>58</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,10 +5750,10 @@
         <v>19</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>22</v>
@@ -5862,7 +5765,7 @@
         <v>35</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>122</v>
@@ -5871,7 +5774,7 @@
         <v>24</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>29</v>
@@ -5880,7 +5783,7 @@
         <v>86</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,10 +5791,10 @@
         <v>45480.5208735185</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>21</v>
@@ -5900,28 +5803,28 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>29</v>
@@ -5930,7 +5833,7 @@
         <v>30</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,7 +5844,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>21</v>
@@ -5950,22 +5853,22 @@
         <v>66</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,19 +5888,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>24</v>
@@ -6017,7 +5920,7 @@
         <v>17</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>19</v>
@@ -6026,31 +5929,31 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>29</v>
@@ -6067,19 +5970,19 @@
         <v>17</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>18</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>24</v>
@@ -6091,25 +5994,23 @@
         <v>24</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>406</v>
-      </c>
+      <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,19 +6030,19 @@
         <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>24</v>
@@ -6161,7 +6062,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>23</v>
@@ -6172,9 +6073,7 @@
       <c r="F72" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
         <v>24</v>
       </c>
@@ -6185,16 +6084,16 @@
         <v>24</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>29</v>
@@ -6203,7 +6102,7 @@
         <v>70</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,10 +6110,10 @@
         <v>45480.5472392361</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>21</v>
@@ -6223,10 +6122,10 @@
         <v>19</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>24</v>
@@ -6238,17 +6137,15 @@
         <v>35</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N73" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
         <v>54</v>
       </c>
@@ -6267,7 +6164,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>20</v>
@@ -6276,22 +6173,22 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>27</v>
@@ -6311,7 +6208,7 @@
         <v>98</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D75" s="3" t="n">
         <v>19</v>
@@ -6320,31 +6217,31 @@
         <v>66</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>29</v>
@@ -6353,7 +6250,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,28 +6273,28 @@
         <v>83</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>29</v>
@@ -6406,7 +6303,7 @@
         <v>86</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,10 +6311,10 @@
         <v>45480.5577299884</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D77" s="3" t="n">
         <v>21</v>
@@ -6426,22 +6323,22 @@
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,10 +6346,10 @@
         <v>45480.5598228009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>23</v>
@@ -6461,10 +6358,10 @@
         <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>24</v>
@@ -6473,19 +6370,19 @@
         <v>121</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>29</v>
@@ -6494,7 +6391,7 @@
         <v>86</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6399,7 @@
         <v>45480.5599590278</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>18</v>
@@ -6517,7 +6414,7 @@
         <v>83</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>22</v>
@@ -6526,11 +6423,9 @@
         <v>85</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>446</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
         <v>85</v>
       </c>
@@ -6552,28 +6447,28 @@
         <v>17</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D80" s="3" t="n">
         <v>19</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>26</v>
@@ -6582,7 +6477,7 @@
         <v>24</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>29</v>
@@ -6591,7 +6486,7 @@
         <v>30</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,7 +6503,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>108</v>
@@ -6620,13 +6515,13 @@
         <v>49</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>29</v>
@@ -6643,7 +6538,7 @@
         <v>17</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D82" s="3" t="n">
         <v>19</v>
@@ -6652,31 +6547,31 @@
         <v>66</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>128</v>
@@ -6685,7 +6580,7 @@
         <v>86</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>20</v>
@@ -6705,31 +6600,31 @@
         <v>19</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>29</v>
@@ -6738,7 +6633,7 @@
         <v>30</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,10 +6641,10 @@
         <v>45480.5690753356</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D84" s="3" t="n">
         <v>19</v>
@@ -6758,40 +6653,40 @@
         <v>19</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>468</v>
+        <v>207</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6802,7 +6697,7 @@
         <v>17</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D85" s="3" t="n">
         <v>21</v>
@@ -6811,37 +6706,33 @@
         <v>19</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>474</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N85" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="N85" s="3"/>
       <c r="O85" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6743,7 @@
         <v>17</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>19</v>
@@ -6861,10 +6752,10 @@
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>70</v>
@@ -6876,7 +6767,7 @@
         <v>24</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>26</v>
@@ -6885,7 +6776,7 @@
         <v>27</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>29</v>
@@ -6902,7 +6793,7 @@
         <v>17</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="3" t="n">
         <v>23</v>
@@ -6911,31 +6802,31 @@
         <v>19</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>29</v>
@@ -6944,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,31 +6855,31 @@
         <v>19</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,7 +6890,7 @@
         <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D89" s="3" t="n">
         <v>19</v>
@@ -7008,22 +6899,22 @@
         <v>19</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,10 +6922,10 @@
         <v>45480.597584838</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>20</v>
@@ -7043,22 +6934,22 @@
         <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>29</v>
@@ -7084,25 +6975,25 @@
         <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>24</v>
@@ -7114,7 +7005,7 @@
         <v>30</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,7 +7013,7 @@
         <v>45480.6134425231</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>18</v>
@@ -7134,19 +7025,19 @@
         <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>24</v>
@@ -7172,25 +7063,25 @@
         <v>58</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>29</v>
@@ -7222,13 +7113,13 @@
         <v>70</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>38</v>
@@ -7257,31 +7148,31 @@
         <v>19</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>29</v>
@@ -7298,7 +7189,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>19</v>
@@ -7307,31 +7198,31 @@
         <v>19</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>29</v>
@@ -7340,7 +7231,7 @@
         <v>30</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,7 +7242,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D97" s="3" t="n">
         <v>20</v>
@@ -7360,10 +7251,10 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>24</v>
@@ -7375,25 +7266,25 @@
         <v>24</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>525</v>
+        <v>207</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,10 +7292,10 @@
         <v>45480.6292693866</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>20</v>
@@ -7413,31 +7304,29 @@
         <v>19</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>532</v>
-      </c>
+      <c r="K98" s="3"/>
       <c r="L98" s="3" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7448,7 +7337,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D99" s="3" t="n">
         <v>20</v>
@@ -7457,31 +7346,31 @@
         <v>58</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>29</v>
@@ -7490,7 +7379,7 @@
         <v>86</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7501,7 +7390,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D100" s="3" t="n">
         <v>22</v>
@@ -7510,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>22</v>
@@ -7519,16 +7408,16 @@
         <v>101</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>29</v>
@@ -7545,7 +7434,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>20</v>
@@ -7554,19 +7443,19 @@
         <v>19</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>40</v>
@@ -7580,40 +7469,40 @@
         <v>98</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>19</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>29</v>
@@ -7622,7 +7511,7 @@
         <v>70</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7642,37 +7531,37 @@
         <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7692,10 +7581,10 @@
         <v>66</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>24</v>
@@ -7707,7 +7596,7 @@
         <v>35</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>126</v>
@@ -7716,7 +7605,7 @@
         <v>24</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>54</v>
@@ -7733,7 +7622,7 @@
         <v>17</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D105" s="3" t="n">
         <v>19</v>
@@ -7742,7 +7631,7 @@
         <v>19</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>80</v>
@@ -7751,22 +7640,22 @@
         <v>24</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>29</v>
@@ -7775,7 +7664,7 @@
         <v>30</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,13 +7684,13 @@
         <v>19</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>35</v>
@@ -7833,31 +7722,31 @@
         <v>58</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>578</v>
+        <v>273</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>29</v>
@@ -7883,31 +7772,31 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>29</v>
@@ -7933,31 +7822,31 @@
         <v>58</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>29</v>
@@ -7966,7 +7855,7 @@
         <v>40</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7986,10 +7875,10 @@
         <v>58</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>70</v>
@@ -8001,16 +7890,16 @@
         <v>35</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>29</v>
@@ -8019,7 +7908,7 @@
         <v>30</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8030,7 +7919,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>19</v>
@@ -8039,28 +7928,28 @@
         <v>19</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>54</v>
@@ -8074,7 +7963,7 @@
         <v>98</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D112" s="3" t="n">
         <v>22</v>
@@ -8083,22 +7972,22 @@
         <v>19</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>126</v>
@@ -8107,7 +7996,7 @@
         <v>24</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>29</v>
@@ -8124,7 +8013,7 @@
         <v>17</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>19</v>
@@ -8133,16 +8022,16 @@
         <v>19</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>35</v>
@@ -8164,29 +8053,27 @@
       <c r="E114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>29</v>
@@ -8195,7 +8082,7 @@
         <v>30</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,7 +8093,7 @@
         <v>17</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" s="3" t="n">
         <v>19</v>
@@ -8215,22 +8102,22 @@
         <v>19</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>26</v>
@@ -8239,7 +8126,7 @@
         <v>27</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>29</v>
@@ -8248,7 +8135,7 @@
         <v>40</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,31 +8155,31 @@
         <v>19</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>29</v>
@@ -8301,7 +8188,7 @@
         <v>86</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,31 +8208,31 @@
         <v>66</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>29</v>
@@ -8354,7 +8241,7 @@
         <v>86</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8365,7 +8252,7 @@
         <v>17</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>19</v>
@@ -8374,22 +8261,22 @@
         <v>66</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>26</v>
@@ -8398,7 +8285,7 @@
         <v>27</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>128</v>
@@ -8424,19 +8311,19 @@
         <v>66</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>38</v>
@@ -8456,7 +8343,7 @@
         <v>17</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>21</v>
@@ -8465,22 +8352,22 @@
         <v>19</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>82</v>
@@ -8489,7 +8376,7 @@
         <v>24</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>29</v>
@@ -8498,7 +8385,7 @@
         <v>30</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,7 +8405,7 @@
         <v>19</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>24</v>
@@ -8530,7 +8417,7 @@
         <v>35</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M121" s="3" t="s">
         <v>24</v>
@@ -8559,31 +8446,31 @@
         <v>19</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>29</v>
@@ -8592,7 +8479,7 @@
         <v>40</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8600,10 +8487,10 @@
         <v>45480.9040375579</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D123" s="3" t="n">
         <v>18</v>
@@ -8612,31 +8499,31 @@
         <v>19</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>128</v>
@@ -8645,7 +8532,7 @@
         <v>30</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8656,7 +8543,7 @@
         <v>17</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D124" s="3" t="n">
         <v>26</v>
@@ -8665,16 +8552,16 @@
         <v>19</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>24</v>
@@ -8683,13 +8570,13 @@
         <v>125</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>29</v>
@@ -8698,7 +8585,7 @@
         <v>86</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,10 +8593,10 @@
         <v>45480.9534758796</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>20</v>
@@ -8718,31 +8605,31 @@
         <v>19</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M125" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>29</v>
@@ -8751,7 +8638,7 @@
         <v>30</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8759,10 +8646,10 @@
         <v>45480.9560073032</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>20</v>
@@ -8771,31 +8658,31 @@
         <v>19</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>29</v>
@@ -8824,22 +8711,22 @@
         <v>19</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>72</v>
@@ -8848,7 +8735,7 @@
         <v>38</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>29</v>
@@ -8865,7 +8752,7 @@
         <v>17</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>24</v>
@@ -8874,31 +8761,31 @@
         <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>29</v>
@@ -8924,25 +8811,25 @@
         <v>66</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>678</v>
+        <v>495</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>38</v>
@@ -8971,10 +8858,10 @@
         <v>19</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>24</v>
@@ -8986,10 +8873,10 @@
         <v>35</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="M130" s="3" t="s">
         <v>38</v>
@@ -9001,7 +8888,7 @@
         <v>86</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,7 +8899,7 @@
         <v>17</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D131" s="3" t="n">
         <v>18</v>
@@ -9021,7 +8908,7 @@
         <v>19</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>24</v>
@@ -9033,10 +8920,10 @@
         <v>35</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>128</v>
@@ -9053,7 +8940,7 @@
         <v>98</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>21</v>
@@ -9062,31 +8949,29 @@
         <v>66</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K132" s="3" t="s">
-        <v>688</v>
-      </c>
+      <c r="K132" s="3"/>
       <c r="L132" s="3" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>29</v>
@@ -9115,16 +9000,16 @@
         <v>19</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>27</v>
@@ -9144,7 +9029,7 @@
         <v>98</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>20</v>
@@ -9153,22 +9038,22 @@
         <v>58</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>24</v>
@@ -9182,7 +9067,7 @@
         <v>17</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>19</v>
@@ -9191,31 +9076,31 @@
         <v>19</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>29</v>
@@ -9224,7 +9109,7 @@
         <v>40</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9232,10 +9117,10 @@
         <v>45481.4597159144</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>22</v>
@@ -9244,23 +9129,21 @@
         <v>19</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K136" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="K136" s="3"/>
       <c r="L136" s="3" t="s">
         <v>26</v>
       </c>
@@ -9277,7 +9160,7 @@
         <v>30</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9285,10 +9168,10 @@
         <v>45481.4707015394</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>23</v>
@@ -9297,31 +9180,31 @@
         <v>19</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>29</v>
@@ -9330,7 +9213,7 @@
         <v>30</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9338,10 +9221,10 @@
         <v>45481.4747049074</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>21</v>
@@ -9350,10 +9233,10 @@
         <v>19</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>70</v>
@@ -9365,10 +9248,10 @@
         <v>49</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>27</v>
@@ -9388,7 +9271,7 @@
         <v>17</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139" s="3" t="n">
         <v>21</v>
@@ -9397,31 +9280,31 @@
         <v>66</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9438,34 +9321,34 @@
         <v>20</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="M140" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>29</v>
@@ -9479,10 +9362,10 @@
         <v>45481.7916117593</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>20</v>
@@ -9491,11 +9374,9 @@
         <v>19</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>729</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
         <v>24</v>
       </c>
@@ -9506,16 +9387,16 @@
         <v>24</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="O141" s="3" t="s">
         <v>29</v>
@@ -9524,7 +9405,7 @@
         <v>30</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9532,10 +9413,10 @@
         <v>45481.7933557176</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>20</v>
@@ -9544,10 +9425,10 @@
         <v>19</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>24</v>
@@ -9556,19 +9437,19 @@
         <v>69</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="M142" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>29</v>
@@ -9577,7 +9458,7 @@
         <v>40</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,22 +9478,22 @@
         <v>58</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>72</v>
@@ -9621,7 +9502,7 @@
         <v>38</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>29</v>
@@ -9630,7 +9511,7 @@
         <v>30</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9641,7 +9522,7 @@
         <v>17</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>20</v>
@@ -9650,22 +9531,22 @@
         <v>58</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>747</v>
+        <v>204</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>26</v>
@@ -9674,7 +9555,7 @@
         <v>24</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>54</v>
@@ -9683,7 +9564,7 @@
         <v>86</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9694,7 +9575,7 @@
         <v>98</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>18</v>
@@ -9703,31 +9584,29 @@
         <v>19</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>755</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="K145" s="3"/>
       <c r="L145" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M145" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>29</v>
@@ -9736,7 +9615,7 @@
         <v>70</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,10 +9623,10 @@
         <v>45482.3995232639</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>20</v>
@@ -9756,31 +9635,31 @@
         <v>19</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>760</v>
+        <v>506</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="M146" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9791,7 +9670,7 @@
         <v>17</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>23</v>
@@ -9800,10 +9679,10 @@
         <v>19</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>70</v>
@@ -9812,19 +9691,19 @@
         <v>109</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>29</v>
@@ -9841,16 +9720,16 @@
         <v>17</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>21</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>68</v>
@@ -9859,19 +9738,19 @@
         <v>22</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>29</v>
@@ -9880,7 +9759,7 @@
         <v>30</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9891,7 +9770,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>19</v>
@@ -9900,16 +9779,16 @@
         <v>19</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>24</v>
@@ -9923,7 +9802,7 @@
         <v>17</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>21</v>
@@ -9932,10 +9811,10 @@
         <v>66</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>70</v>
@@ -9947,16 +9826,16 @@
         <v>24</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>29</v>
@@ -9965,7 +9844,7 @@
         <v>40</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9976,7 +9855,7 @@
         <v>17</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D151" s="3" t="n">
         <v>23</v>
@@ -9985,40 +9864,38 @@
         <v>58</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>781</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>783</v>
+        <v>444</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>77</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,7 +9906,7 @@
         <v>17</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>20</v>
@@ -10038,7 +9915,7 @@
         <v>19</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>24</v>
@@ -10067,7 +9944,7 @@
         <v>17</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153" s="3" t="n">
         <v>20</v>
@@ -10076,31 +9953,31 @@
         <v>58</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M153" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>29</v>
@@ -10109,7 +9986,7 @@
         <v>40</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10120,7 +9997,7 @@
         <v>17</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D154" s="3" t="n">
         <v>24</v>
@@ -10129,31 +10006,31 @@
         <v>58</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>128</v>
@@ -10162,7 +10039,7 @@
         <v>30</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>799</v>
+        <v>775</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10170,10 +10047,10 @@
         <v>45482.4192383796</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="D155" s="3" t="n">
         <v>20</v>
@@ -10182,25 +10059,25 @@
         <v>19</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="M155" s="3" t="s">
         <v>24</v>
@@ -10220,7 +10097,7 @@
         <v>56</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>804</v>
+        <v>780</v>
       </c>
       <c r="D156" s="3" t="n">
         <v>24</v>
@@ -10229,10 +10106,10 @@
         <v>58</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>24</v>
@@ -10244,10 +10121,10 @@
         <v>70</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>29</v>
@@ -10256,7 +10133,7 @@
         <v>30</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10267,7 +10144,7 @@
         <v>17</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D157" s="3" t="n">
         <v>19</v>
@@ -10276,31 +10153,31 @@
         <v>19</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>809</v>
+        <v>552</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>810</v>
+        <v>556</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="M157" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>54</v>
@@ -10309,7 +10186,7 @@
         <v>70</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10332,7 +10209,7 @@
         <v>20</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>24</v>
@@ -10344,16 +10221,16 @@
         <v>24</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10364,7 +10241,7 @@
         <v>17</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>21</v>
@@ -10373,31 +10250,29 @@
         <v>58</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>474</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="K159" s="3"/>
       <c r="L159" s="3" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="M159" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>474</v>
+        <v>795</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>29</v>
@@ -10406,7 +10281,7 @@
         <v>30</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>474</v>
+        <v>795</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,7 +10292,7 @@
         <v>17</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>23</v>
@@ -10426,31 +10301,31 @@
         <v>58</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>29</v>
@@ -10467,7 +10342,7 @@
         <v>17</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D161" s="3" t="n">
         <v>19</v>
@@ -10476,19 +10351,19 @@
         <v>19</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>30</v>
@@ -10511,31 +10386,31 @@
         <v>19</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="M162" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>29</v>
@@ -10544,7 +10419,7 @@
         <v>30</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10564,31 +10439,31 @@
         <v>58</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>54</v>
@@ -10597,7 +10472,7 @@
         <v>70</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10608,7 +10483,7 @@
         <v>17</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D164" s="3" t="n">
         <v>20</v>
@@ -10617,31 +10492,31 @@
         <v>19</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10652,7 +10527,7 @@
         <v>17</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D165" s="3" t="n">
         <v>19</v>
@@ -10661,25 +10536,25 @@
         <v>19</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>847</v>
+        <v>556</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>24</v>
@@ -10691,7 +10566,7 @@
         <v>86</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,43 +10577,43 @@
         <v>17</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D166" s="3" t="n">
         <v>19</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P166" s="3" t="s">
         <v>30</v>
@@ -10761,31 +10636,31 @@
         <v>19</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>29</v>
@@ -10794,7 +10669,7 @@
         <v>86</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10814,22 +10689,20 @@
         <v>19</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="M168" s="3" t="s">
         <v>27</v>
@@ -10849,7 +10722,7 @@
         <v>17</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D169" s="3" t="n">
         <v>19</v>
@@ -10858,10 +10731,10 @@
         <v>19</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>70</v>
@@ -10873,7 +10746,7 @@
         <v>24</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>118</v>
@@ -10896,49 +10769,47 @@
         <v>56</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="D170" s="3" t="n">
         <v>18</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="K170" s="3" t="s">
-        <v>866</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="K170" s="3"/>
       <c r="L170" s="3" t="s">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>868</v>
+        <v>841</v>
       </c>
       <c r="O170" s="3" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10958,10 +10829,10 @@
         <v>58</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>24</v>
@@ -10970,19 +10841,19 @@
         <v>101</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>54</v>
@@ -10991,7 +10862,7 @@
         <v>86</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11002,7 +10873,7 @@
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D172" s="3" t="n">
         <v>19</v>
@@ -11014,28 +10885,28 @@
         <v>83</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="J172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>70</v>
@@ -11058,31 +10929,31 @@
         <v>19</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>29</v>

--- a/Consumo_Cultural_en_Cuba.xlsx
+++ b/Consumo_Cultural_en_Cuba.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="850">
   <si>
     <t xml:space="preserve">Marca temporal</t>
   </si>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">ISA</t>
   </si>
   <si>
-    <t xml:space="preserve">Facultad de Arte de los Medios de Comunicación Audiovisual</t>
+    <t xml:space="preserve">Famca </t>
   </si>
   <si>
     <t xml:space="preserve">Cine</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">Biología </t>
   </si>
   <si>
-    <t xml:space="preserve">Hip-Hop, Trap, Pop alternative </t>
+    <t xml:space="preserve">Hip-Hop, Trap, alternative </t>
   </si>
   <si>
     <t xml:space="preserve">Billie Eilish </t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Julio Travieso Serrano</t>
   </si>
   <si>
-    <t xml:space="preserve">Kpop y pop</t>
+    <t xml:space="preserve">Kpop , pop</t>
   </si>
   <si>
     <t xml:space="preserve">Comedia, Drama, Suspenso, Misterio</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">Ciencias pedagógicas </t>
   </si>
   <si>
-    <t xml:space="preserve">K-pop </t>
+    <t xml:space="preserve">Kpop </t>
   </si>
   <si>
     <t xml:space="preserve">BTS</t>
@@ -613,7 +613,7 @@
     <t xml:space="preserve">No tengo</t>
   </si>
   <si>
-    <t xml:space="preserve">Hip-Hop, Pop, Alternativa</t>
+    <t xml:space="preserve">Hip-Hop, Pop, Alternative</t>
   </si>
   <si>
     <t xml:space="preserve">Twenty One Pilots</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve">Kill Bill </t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Alternativa </t>
+    <t xml:space="preserve">Rock, Alternative</t>
   </si>
   <si>
     <t xml:space="preserve">Acción, Drama, Suspenso, Misterio</t>
@@ -787,7 +787,7 @@
     <t xml:space="preserve">Drama, Musical</t>
   </si>
   <si>
-    <t xml:space="preserve">A 3 metros de ti</t>
+    <t xml:space="preserve">A 2 metros de ti</t>
   </si>
   <si>
     <t xml:space="preserve">Misterio, Romance</t>
@@ -835,9 +835,6 @@
     <t xml:space="preserve">Reggaetón, Hip-Hop, Pop</t>
   </si>
   <si>
-    <t xml:space="preserve">La descargo por Snaptube</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comedia, Drama, Terror, Misterio</t>
   </si>
   <si>
@@ -880,7 +877,7 @@
     <t xml:space="preserve">Picasso </t>
   </si>
   <si>
-    <t xml:space="preserve">post-punk, new wave, synth-pop, darkwave, indie rock, gothic rock, lo-fi, alternative</t>
+    <t xml:space="preserve">post-punk, new wave, synth-pop, darkwave, indie , rock, lo-fi, alternative</t>
   </si>
   <si>
     <t xml:space="preserve">Molchat Doma</t>
@@ -973,7 +970,7 @@
     <t xml:space="preserve">Ariana Grande , BTS </t>
   </si>
   <si>
-    <t xml:space="preserve">SnapTube </t>
+    <t xml:space="preserve">Snaptube </t>
   </si>
   <si>
     <t xml:space="preserve">Romance </t>
@@ -1003,9 +1000,6 @@
     <t xml:space="preserve">Ed Sheeran , Imagine Dragons </t>
   </si>
   <si>
-    <t xml:space="preserve">VidMate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basados en Hechos Reales</t>
   </si>
   <si>
@@ -1183,9 +1177,6 @@
     <t xml:space="preserve">Rock, Reggaetón, Pop, Trap</t>
   </si>
   <si>
-    <t xml:space="preserve">descargadas desde snaptube</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acción, Comedia, Misterio</t>
   </si>
   <si>
@@ -1246,7 +1237,7 @@
     <t xml:space="preserve">Economía </t>
   </si>
   <si>
-    <t xml:space="preserve">Reggaetón, Pop, Alternativo</t>
+    <t xml:space="preserve">Reggaetón, Pop, Alternative</t>
   </si>
   <si>
     <t xml:space="preserve">The Neighbourhood </t>
@@ -1405,13 +1396,13 @@
     <t xml:space="preserve">Salvador Dalí</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Reggaetón, Pop, Escucho de todo, siempre que me haga conectar con la música. El género no es tan importante para mí, sino lo que transmita la canción..</t>
+    <t xml:space="preserve">Rock, Reggaetón, Pop</t>
   </si>
   <si>
     <t xml:space="preserve">Drama, Suspenso, Musical, Históricos, biográficos, thriller psicológico </t>
   </si>
   <si>
-    <t xml:space="preserve">Molino Rojo, El extraño caso de Benjamin Button, Múltiple o El Gran Show man.</t>
+    <t xml:space="preserve">Molino Rojo, El extraño caso de Benjamin Button,  El Gran Show man.</t>
   </si>
   <si>
     <t xml:space="preserve">No tengo, pero me gusta mucho la obra de Dalí.</t>
@@ -1456,7 +1447,7 @@
     <t xml:space="preserve">Contabilidad y Finanzas</t>
   </si>
   <si>
-    <t xml:space="preserve">Indie pop e Indie rock</t>
+    <t xml:space="preserve">Indie,  pop , rock</t>
   </si>
   <si>
     <t xml:space="preserve">El silencio de los corderos </t>
@@ -1636,7 +1627,7 @@
     <t xml:space="preserve">Arquitectura </t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Pop, Jazz, Funk, Rumba, Alternative y R&amp;B</t>
+    <t xml:space="preserve">Rock, Pop, Jazz, Funk, Rumba, Alternative,  R&amp;B</t>
   </si>
   <si>
     <t xml:space="preserve">Childish Gambino , Hozier</t>
@@ -1777,7 +1768,7 @@
     <t xml:space="preserve">Reggaetón, Hip-Hop, Pop, Jazz, Blues</t>
   </si>
   <si>
-    <t xml:space="preserve">Alicia Keya</t>
+    <t xml:space="preserve">Alicia Keys</t>
   </si>
   <si>
     <t xml:space="preserve">Acción, Comedia, Drama</t>
@@ -1804,9 +1795,6 @@
     <t xml:space="preserve">Your Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Ninguno hasta ahora </t>
-  </si>
-  <si>
     <t xml:space="preserve">Miguel Angel</t>
   </si>
   <si>
@@ -1828,9 +1816,6 @@
     <t xml:space="preserve">Misterio, Suspenso, Romance, Comedia</t>
   </si>
   <si>
-    <t xml:space="preserve">no tengo </t>
-  </si>
-  <si>
     <t xml:space="preserve">no tengo</t>
   </si>
   <si>
@@ -1852,7 +1837,7 @@
     <t xml:space="preserve">Jack London, Cassandra Clare, Edgar Allan Poe</t>
   </si>
   <si>
-    <t xml:space="preserve">Geográfia</t>
+    <t xml:space="preserve">Geografía</t>
   </si>
   <si>
     <t xml:space="preserve">Trap</t>
@@ -1879,7 +1864,7 @@
     <t xml:space="preserve">Psicología </t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, indie, alt</t>
+    <t xml:space="preserve">Rock, indie, alternative</t>
   </si>
   <si>
     <t xml:space="preserve">Falling in Reverse</t>
@@ -1960,9 +1945,6 @@
     <t xml:space="preserve">Adele</t>
   </si>
   <si>
-    <t xml:space="preserve">100 mentros sobre el cielo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Literatura clásica inglesa</t>
   </si>
   <si>
@@ -1978,7 +1960,7 @@
     <t xml:space="preserve">Julio Cortázar </t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Pop, Trova, Música japo</t>
+    <t xml:space="preserve">Rock, Pop, Trova, Jpop</t>
   </si>
   <si>
     <t xml:space="preserve">Mili</t>
@@ -2041,9 +2023,6 @@
     <t xml:space="preserve">Descargo libros por Google y en Wattpad</t>
   </si>
   <si>
-    <t xml:space="preserve">Tengo demasiados </t>
-  </si>
-  <si>
     <t xml:space="preserve">Comedia, Romance, Comedia romántica</t>
   </si>
   <si>
@@ -2128,9 +2107,6 @@
     <t xml:space="preserve">Epub y PDF en mi teléfono y laptop</t>
   </si>
   <si>
-    <t xml:space="preserve">Depende del género</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reggaetón, Pop, Jazz, Trova, Blues</t>
   </si>
   <si>
@@ -2182,13 +2158,13 @@
     <t xml:space="preserve">Suspenso, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve">Neruda</t>
+    <t xml:space="preserve">Pablo Neruda</t>
   </si>
   <si>
     <t xml:space="preserve">Leonardo Davinci</t>
   </si>
   <si>
-    <t xml:space="preserve">Jazz, Musica Indie</t>
+    <t xml:space="preserve">Jazz, Indie</t>
   </si>
   <si>
     <t xml:space="preserve">Mac DeMarco</t>
@@ -2257,10 +2233,10 @@
     <t xml:space="preserve">Habana Blues</t>
   </si>
   <si>
-    <t xml:space="preserve">Isabell Allende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, Jazz, Blues, ok</t>
+    <t xml:space="preserve">Isabel Allende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop, Jazz, Blues</t>
   </si>
   <si>
     <t xml:space="preserve">La trilogía de Dan Brown</t>
@@ -2293,7 +2269,7 @@
     <t xml:space="preserve">Rembrandt</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Pop, EDM, Experimental, J-pop, J-rock</t>
+    <t xml:space="preserve">Rock,  Pop , EDM, Experimental,  Jpop,  Jrock</t>
   </si>
   <si>
     <t xml:space="preserve">Acción, Aventura, Comedia, Misterio, Ciencia Ficción, Fantasía</t>
@@ -2362,10 +2338,7 @@
     <t xml:space="preserve">Little woman (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">Famca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop, Folk, indie, alt rock, kpop, indie latino </t>
+    <t xml:space="preserve">Pop, Folk, indie, alternative , kpop</t>
   </si>
   <si>
     <t xml:space="preserve">Agnès Obel </t>
@@ -2398,7 +2371,7 @@
     <t xml:space="preserve">Ken Follet</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock, Pop, R&amp;B, Lo-Fi, Alternativa.</t>
+    <t xml:space="preserve">Rock, Pop, R&amp;B, Lo-Fi, Alternative.</t>
   </si>
   <si>
     <t xml:space="preserve">Joji, Cigarretes after sex, Artic Monkeys, Mitski, Mac DeMarco, Bon Jovi, ABBA, QUEEN.</t>
@@ -2521,7 +2494,7 @@
     <t xml:space="preserve">Ficción, Fantasía, Romance, Literatura historíca, Comedia</t>
   </si>
   <si>
-    <t xml:space="preserve">Reggaetón, Pop, Rumba, Baladas románticas</t>
+    <t xml:space="preserve">Reggaetón, Pop, Rumba, Romántico</t>
   </si>
   <si>
     <t xml:space="preserve">Backstreet boys</t>
@@ -2584,7 +2557,7 @@
     <t xml:space="preserve">Vértigo </t>
   </si>
   <si>
-    <t xml:space="preserve">Hip-Hop, Pop, Trova, Blues, Timba ¿Cómo no va a estar en la lista?</t>
+    <t xml:space="preserve">Hip-Hop, Pop, Trova, Blues, Timba</t>
   </si>
   <si>
     <t xml:space="preserve">Silvio Rodríguez , Alexander Abreu , HP</t>
@@ -2716,16 +2689,16 @@
   </sheetPr>
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E148" activeCellId="0" sqref="E148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="N175" activeCellId="0" sqref="N175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="118.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="70.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="7" style="0" width="18.88"/>
   </cols>
   <sheetData>
@@ -3263,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>93</v>
@@ -3392,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>112</v>
@@ -3783,7 +3756,7 @@
         <v>160</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>161</v>
@@ -3836,7 +3809,7 @@
         <v>167</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>116</v>
@@ -3936,7 +3909,7 @@
         <v>178</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>75</v>
@@ -3981,7 +3954,7 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>183</v>
@@ -4288,7 +4261,7 @@
         <v>177</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>216</v>
@@ -4609,7 +4582,7 @@
         <v>245</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>246</v>
@@ -4803,7 +4776,7 @@
         <v>265</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>263</v>
@@ -4856,16 +4829,16 @@
         <v>153</v>
       </c>
       <c r="H46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>256</v>
@@ -4874,7 +4847,7 @@
         <v>24</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>29</v>
@@ -4883,7 +4856,7 @@
         <v>70</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,26 +4879,26 @@
         <v>177</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>229</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>128</v>
@@ -4954,25 +4927,25 @@
         <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>38</v>
@@ -4987,7 +4960,7 @@
         <v>30</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,10 +4980,10 @@
         <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>22</v>
@@ -5019,14 +4992,14 @@
         <v>137</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
@@ -5036,7 +5009,7 @@
         <v>30</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +5032,7 @@
         <v>152</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -5071,7 +5044,7 @@
         <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>72</v>
@@ -5080,7 +5053,7 @@
         <v>24</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>29</v>
@@ -5097,7 +5070,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>20</v>
@@ -5106,7 +5079,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>204</v>
@@ -5115,13 +5088,13 @@
         <v>205</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>24</v>
@@ -5132,31 +5105,31 @@
         <v>45480.4880751157</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D52" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>24</v>
@@ -5168,7 +5141,7 @@
         <v>86</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,10 +5149,10 @@
         <v>45480.4881459607</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>19</v>
@@ -5188,10 +5161,10 @@
         <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>24</v>
@@ -5203,7 +5176,7 @@
         <v>24</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>189</v>
@@ -5215,13 +5188,13 @@
         <v>53</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,22 +5214,22 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,19 +5252,19 @@
         <v>264</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>82</v>
@@ -5320,13 +5293,13 @@
         <v>58</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>49</v>
@@ -5335,7 +5308,7 @@
         <v>155</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>27</v>
@@ -5349,10 +5322,10 @@
         <v>45480.4931806597</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>21</v>
@@ -5361,31 +5334,31 @@
         <v>19</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>29</v>
@@ -5402,10 +5375,10 @@
         <v>45480.4933693981</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>21</v>
@@ -5414,19 +5387,19 @@
         <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -5443,10 +5416,10 @@
         <v>45480.4946498264</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>23</v>
@@ -5462,16 +5435,16 @@
         <v>24</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>24</v>
@@ -5483,7 +5456,7 @@
         <v>70</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,7 +5467,7 @@
         <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>20</v>
@@ -5503,13 +5476,13 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>49</v>
@@ -5518,13 +5491,13 @@
         <v>200</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>54</v>
@@ -5533,7 +5506,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,10 +5514,10 @@
         <v>45480.4952953009</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>18</v>
@@ -5553,13 +5526,13 @@
         <v>19</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>69</v>
@@ -5568,16 +5541,16 @@
         <v>35</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>29</v>
@@ -5586,7 +5559,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5594,10 +5567,10 @@
         <v>45480.5128145718</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>25</v>
@@ -5609,28 +5582,28 @@
         <v>203</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>118</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>54</v>
@@ -5639,7 +5612,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,7 +5623,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>18</v>
@@ -5662,19 +5635,19 @@
         <v>264</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>228</v>
@@ -5709,28 +5682,28 @@
         <v>203</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,10 +5723,10 @@
         <v>19</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>22</v>
@@ -5774,7 +5747,7 @@
         <v>24</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>29</v>
@@ -5783,7 +5756,7 @@
         <v>86</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,7 +5767,7 @@
         <v>224</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>21</v>
@@ -5803,25 +5776,25 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="J66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="L66" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>141</v>
@@ -5833,7 +5806,7 @@
         <v>30</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,7 +5817,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>21</v>
@@ -5853,22 +5826,22 @@
         <v>66</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,19 +5861,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>24</v>
@@ -5929,10 +5902,10 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>24</v>
@@ -5944,16 +5917,16 @@
         <v>35</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>29</v>
@@ -5970,7 +5943,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>18</v>
@@ -5982,7 +5955,7 @@
         <v>258</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>24</v>
@@ -5994,10 +5967,10 @@
         <v>24</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>27</v>
@@ -6010,7 +5983,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,10 +6003,10 @@
         <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>183</v>
@@ -6042,7 +6015,7 @@
         <v>35</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>24</v>
@@ -6084,16 +6057,16 @@
         <v>24</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>29</v>
@@ -6102,7 +6075,7 @@
         <v>70</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,10 +6083,10 @@
         <v>45480.5472392361</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>21</v>
@@ -6125,7 +6098,7 @@
         <v>270</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>24</v>
@@ -6137,10 +6110,10 @@
         <v>35</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>38</v>
@@ -6164,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>20</v>
@@ -6173,13 +6146,13 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>171</v>
@@ -6188,7 +6161,7 @@
         <v>49</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>27</v>
@@ -6217,31 +6190,31 @@
         <v>66</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>172</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>29</v>
@@ -6250,7 +6223,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,22 +6252,22 @@
         <v>24</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>29</v>
@@ -6311,10 +6284,10 @@
         <v>45480.5577299884</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D77" s="3" t="n">
         <v>21</v>
@@ -6323,13 +6296,13 @@
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>183</v>
@@ -6338,7 +6311,7 @@
         <v>35</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,10 +6319,10 @@
         <v>45480.5598228009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>23</v>
@@ -6358,10 +6331,10 @@
         <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>24</v>
@@ -6370,19 +6343,19 @@
         <v>121</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>29</v>
@@ -6391,7 +6364,7 @@
         <v>86</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,7 +6387,7 @@
         <v>83</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>22</v>
@@ -6423,7 +6396,7 @@
         <v>85</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
@@ -6453,7 +6426,7 @@
         <v>19</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>177</v>
@@ -6468,7 +6441,7 @@
         <v>35</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>26</v>
@@ -6477,7 +6450,7 @@
         <v>24</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>29</v>
@@ -6486,7 +6459,7 @@
         <v>30</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>108</v>
@@ -6521,7 +6494,7 @@
         <v>38</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>29</v>
@@ -6550,28 +6523,28 @@
         <v>177</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>128</v>
@@ -6580,7 +6553,7 @@
         <v>86</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6564,7 @@
         <v>17</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>20</v>
@@ -6600,22 +6573,22 @@
         <v>19</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>132</v>
@@ -6624,7 +6597,7 @@
         <v>24</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>29</v>
@@ -6633,7 +6606,7 @@
         <v>30</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,25 +6617,25 @@
         <v>224</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="D84" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>24</v>
@@ -6671,22 +6644,22 @@
         <v>207</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,23 +6679,23 @@
         <v>19</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>247</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>24</v>
@@ -6732,7 +6705,7 @@
         <v>29</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,7 +6716,7 @@
         <v>17</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>19</v>
@@ -6752,13 +6725,13 @@
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>85</v>
@@ -6767,7 +6740,7 @@
         <v>24</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>26</v>
@@ -6776,7 +6749,7 @@
         <v>27</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>29</v>
@@ -6802,7 +6775,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>235</v>
@@ -6811,7 +6784,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>35</v>
@@ -6820,13 +6793,13 @@
         <v>200</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>29</v>
@@ -6855,31 +6828,31 @@
         <v>19</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,7 +6863,7 @@
         <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D89" s="3" t="n">
         <v>19</v>
@@ -6899,7 +6872,7 @@
         <v>19</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>198</v>
@@ -6914,7 +6887,7 @@
         <v>35</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,10 +6895,10 @@
         <v>45480.597584838</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>20</v>
@@ -6934,22 +6907,22 @@
         <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>29</v>
@@ -6975,25 +6948,25 @@
         <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>24</v>
@@ -7005,7 +6978,7 @@
         <v>30</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,19 +6998,19 @@
         <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>24</v>
@@ -7063,25 +7036,25 @@
         <v>58</v>
       </c>
       <c r="F93" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="M93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>29</v>
@@ -7110,16 +7083,16 @@
         <v>83</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>38</v>
@@ -7148,31 +7121,31 @@
         <v>19</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>29</v>
@@ -7189,7 +7162,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>19</v>
@@ -7201,22 +7174,22 @@
         <v>177</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>38</v>
@@ -7231,7 +7204,7 @@
         <v>30</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,7 +7215,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D97" s="3" t="n">
         <v>20</v>
@@ -7251,10 +7224,10 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>24</v>
@@ -7269,19 +7242,19 @@
         <v>207</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q97" s="3" t="s">
         <v>165</v>
@@ -7292,7 +7265,7 @@
         <v>45480.6292693866</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>134</v>
@@ -7304,29 +7277,29 @@
         <v>19</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7337,7 +7310,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D99" s="3" t="n">
         <v>20</v>
@@ -7346,28 +7319,28 @@
         <v>58</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N99" s="3" t="s">
         <v>164</v>
@@ -7379,7 +7352,7 @@
         <v>86</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,16 +7381,16 @@
         <v>101</v>
       </c>
       <c r="J100" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="N100" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>29</v>
@@ -7434,7 +7407,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>20</v>
@@ -7443,19 +7416,19 @@
         <v>19</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>40</v>
@@ -7469,7 +7442,7 @@
         <v>98</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>19</v>
@@ -7478,31 +7451,31 @@
         <v>144</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I102" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>29</v>
@@ -7511,7 +7484,7 @@
         <v>70</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7531,28 +7504,28 @@
         <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>200</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>174</v>
@@ -7561,7 +7534,7 @@
         <v>86</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7584,7 +7557,7 @@
         <v>177</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>24</v>
@@ -7596,7 +7569,7 @@
         <v>35</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>126</v>
@@ -7631,7 +7604,7 @@
         <v>19</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>80</v>
@@ -7640,22 +7613,22 @@
         <v>24</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>29</v>
@@ -7664,7 +7637,7 @@
         <v>30</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7690,7 +7663,7 @@
         <v>205</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>35</v>
@@ -7722,22 +7695,22 @@
         <v>58</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>256</v>
@@ -7746,7 +7719,7 @@
         <v>24</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>29</v>
@@ -7772,31 +7745,31 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>29</v>
@@ -7825,10 +7798,10 @@
         <v>177</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>263</v>
@@ -7837,10 +7810,10 @@
         <v>35</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>38</v>
@@ -7855,7 +7828,7 @@
         <v>40</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,13 +7848,13 @@
         <v>58</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>116</v>
@@ -7890,16 +7863,16 @@
         <v>35</v>
       </c>
       <c r="K110" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="N110" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>29</v>
@@ -7908,7 +7881,7 @@
         <v>30</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,7 +7892,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>19</v>
@@ -7928,34 +7901,34 @@
         <v>19</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>45480.7625405556</v>
       </c>
@@ -7972,22 +7945,22 @@
         <v>19</v>
       </c>
       <c r="F112" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="J112" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>126</v>
@@ -7996,7 +7969,7 @@
         <v>24</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>29</v>
@@ -8013,7 +7986,7 @@
         <v>17</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>19</v>
@@ -8022,16 +7995,16 @@
         <v>19</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>35</v>
@@ -8058,13 +8031,13 @@
         <v>24</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>189</v>
@@ -8072,9 +8045,7 @@
       <c r="M114" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N114" s="3" t="s">
-        <v>594</v>
-      </c>
+      <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
         <v>29</v>
       </c>
@@ -8082,7 +8053,7 @@
         <v>30</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,19 +8076,19 @@
         <v>225</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>26</v>
@@ -8126,7 +8097,7 @@
         <v>27</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>29</v>
@@ -8135,7 +8106,7 @@
         <v>40</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8155,7 +8126,7 @@
         <v>19</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>235</v>
@@ -8164,23 +8135,21 @@
         <v>24</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N116" s="3" t="s">
-        <v>602</v>
-      </c>
+      <c r="N116" s="3"/>
       <c r="O116" s="3" t="s">
         <v>29</v>
       </c>
@@ -8188,7 +8157,7 @@
         <v>86</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,31 +8177,31 @@
         <v>66</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>29</v>
@@ -8252,7 +8221,7 @@
         <v>17</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>19</v>
@@ -8261,10 +8230,10 @@
         <v>66</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>24</v>
@@ -8276,7 +8245,7 @@
         <v>49</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>26</v>
@@ -8285,7 +8254,7 @@
         <v>27</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>128</v>
@@ -8311,19 +8280,19 @@
         <v>66</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>38</v>
@@ -8343,7 +8312,7 @@
         <v>17</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>21</v>
@@ -8352,22 +8321,22 @@
         <v>19</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>82</v>
@@ -8376,7 +8345,7 @@
         <v>24</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>29</v>
@@ -8446,10 +8415,10 @@
         <v>19</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>22</v>
@@ -8461,16 +8430,16 @@
         <v>247</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>29</v>
@@ -8479,7 +8448,7 @@
         <v>40</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8487,10 +8456,10 @@
         <v>45480.9040375579</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D123" s="3" t="n">
         <v>18</v>
@@ -8502,28 +8471,28 @@
         <v>203</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>128</v>
@@ -8532,7 +8501,7 @@
         <v>30</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8552,16 +8521,16 @@
         <v>19</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>24</v>
@@ -8570,13 +8539,13 @@
         <v>125</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>29</v>
@@ -8585,7 +8554,7 @@
         <v>86</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8593,10 +8562,10 @@
         <v>45480.9534758796</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>20</v>
@@ -8608,19 +8577,19 @@
         <v>177</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>256</v>
@@ -8629,7 +8598,7 @@
         <v>27</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>29</v>
@@ -8638,18 +8607,18 @@
         <v>30</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
         <v>45480.9560073032</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>20</v>
@@ -8661,7 +8630,7 @@
         <v>177</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>24</v>
@@ -8673,16 +8642,16 @@
         <v>35</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>29</v>
@@ -8714,7 +8683,7 @@
         <v>177</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>24</v>
@@ -8726,7 +8695,7 @@
         <v>49</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>72</v>
@@ -8735,7 +8704,7 @@
         <v>38</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>29</v>
@@ -8761,31 +8730,31 @@
         <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>29</v>
@@ -8811,25 +8780,25 @@
         <v>66</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>38</v>
@@ -8858,10 +8827,10 @@
         <v>19</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>24</v>
@@ -8873,10 +8842,10 @@
         <v>35</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="M130" s="3" t="s">
         <v>38</v>
@@ -8888,7 +8857,7 @@
         <v>86</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,10 +8889,10 @@
         <v>35</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>128</v>
@@ -8949,30 +8918,28 @@
         <v>66</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>673</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="N132" s="3"/>
       <c r="O132" s="3" t="s">
         <v>29</v>
       </c>
@@ -9003,13 +8970,13 @@
         <v>177</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>27</v>
@@ -9044,16 +9011,16 @@
         <v>22</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>24</v>
@@ -9067,7 +9034,7 @@
         <v>17</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>19</v>
@@ -9076,31 +9043,31 @@
         <v>19</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>29</v>
@@ -9109,7 +9076,7 @@
         <v>40</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,10 +9084,10 @@
         <v>45481.4597159144</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>22</v>
@@ -9132,13 +9099,13 @@
         <v>177</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>49</v>
@@ -9150,9 +9117,7 @@
       <c r="M136" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N136" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="N136" s="3"/>
       <c r="O136" s="3" t="s">
         <v>29</v>
       </c>
@@ -9168,10 +9133,10 @@
         <v>45481.4707015394</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>23</v>
@@ -9180,31 +9145,31 @@
         <v>19</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>29</v>
@@ -9213,7 +9178,7 @@
         <v>30</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9221,10 +9186,10 @@
         <v>45481.4747049074</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>21</v>
@@ -9233,13 +9198,13 @@
         <v>19</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>69</v>
@@ -9248,10 +9213,10 @@
         <v>49</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>27</v>
@@ -9283,29 +9248,27 @@
         <v>177</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>185</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>702</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="N139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
@@ -9324,31 +9287,31 @@
         <v>144</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="M140" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>29</v>
@@ -9362,10 +9325,10 @@
         <v>45481.7916117593</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>20</v>
@@ -9374,7 +9337,7 @@
         <v>19</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
@@ -9387,17 +9350,15 @@
         <v>24</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="N141" s="3" t="s">
-        <v>713</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="N141" s="3"/>
       <c r="O141" s="3" t="s">
         <v>29</v>
       </c>
@@ -9405,7 +9366,7 @@
         <v>30</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,10 +9374,10 @@
         <v>45481.7933557176</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>20</v>
@@ -9425,10 +9386,10 @@
         <v>19</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>24</v>
@@ -9437,19 +9398,19 @@
         <v>69</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="M142" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>29</v>
@@ -9458,7 +9419,7 @@
         <v>40</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,10 +9439,10 @@
         <v>58</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>22</v>
@@ -9493,7 +9454,7 @@
         <v>58</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>72</v>
@@ -9502,7 +9463,7 @@
         <v>38</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>29</v>
@@ -9511,7 +9472,7 @@
         <v>30</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9522,7 +9483,7 @@
         <v>17</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>20</v>
@@ -9537,7 +9498,7 @@
         <v>204</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>137</v>
@@ -9546,7 +9507,7 @@
         <v>35</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>26</v>
@@ -9555,7 +9516,7 @@
         <v>24</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>54</v>
@@ -9564,7 +9525,7 @@
         <v>86</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9575,7 +9536,7 @@
         <v>98</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>18</v>
@@ -9587,16 +9548,16 @@
         <v>159</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3" t="s">
@@ -9606,7 +9567,7 @@
         <v>38</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>29</v>
@@ -9615,7 +9576,7 @@
         <v>70</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,10 +9584,10 @@
         <v>45482.3995232639</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>20</v>
@@ -9638,28 +9599,28 @@
         <v>264</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="M146" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9670,7 +9631,7 @@
         <v>17</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>23</v>
@@ -9679,31 +9640,31 @@
         <v>19</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>29</v>
@@ -9726,10 +9687,10 @@
         <v>21</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>68</v>
@@ -9738,19 +9699,19 @@
         <v>22</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>29</v>
@@ -9759,7 +9720,7 @@
         <v>30</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9770,7 +9731,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>19</v>
@@ -9779,16 +9740,16 @@
         <v>19</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>24</v>
@@ -9802,7 +9763,7 @@
         <v>17</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>21</v>
@@ -9811,13 +9772,13 @@
         <v>66</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>109</v>
@@ -9826,16 +9787,16 @@
         <v>24</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>229</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>29</v>
@@ -9844,7 +9805,7 @@
         <v>40</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9864,38 +9825,38 @@
         <v>58</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>77</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9906,7 +9867,7 @@
         <v>17</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>20</v>
@@ -9915,7 +9876,7 @@
         <v>19</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>24</v>
@@ -9953,31 +9914,31 @@
         <v>58</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M153" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>29</v>
@@ -9986,7 +9947,7 @@
         <v>40</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,7 +9958,7 @@
         <v>17</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D154" s="3" t="n">
         <v>24</v>
@@ -10006,25 +9967,25 @@
         <v>58</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>38</v>
@@ -10039,7 +10000,7 @@
         <v>30</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10047,10 +10008,10 @@
         <v>45482.4192383796</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D155" s="3" t="n">
         <v>20</v>
@@ -10062,22 +10023,22 @@
         <v>203</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M155" s="3" t="s">
         <v>24</v>
@@ -10097,7 +10058,7 @@
         <v>56</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>780</v>
+        <v>57</v>
       </c>
       <c r="D156" s="3" t="n">
         <v>24</v>
@@ -10106,10 +10067,10 @@
         <v>58</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>24</v>
@@ -10121,7 +10082,7 @@
         <v>70</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="M156" s="3" t="s">
         <v>229</v>
@@ -10133,7 +10094,7 @@
         <v>30</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10156,28 +10117,28 @@
         <v>232</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="M157" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>54</v>
@@ -10186,7 +10147,7 @@
         <v>70</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10209,7 +10170,7 @@
         <v>20</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>24</v>
@@ -10221,16 +10182,16 @@
         <v>24</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10241,7 +10202,7 @@
         <v>17</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>21</v>
@@ -10250,30 +10211,28 @@
         <v>58</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="M159" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N159" s="3" t="s">
-        <v>795</v>
-      </c>
+      <c r="N159" s="3"/>
       <c r="O159" s="3" t="s">
         <v>29</v>
       </c>
@@ -10281,7 +10240,7 @@
         <v>30</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10292,7 +10251,7 @@
         <v>17</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>23</v>
@@ -10301,31 +10260,31 @@
         <v>58</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>29</v>
@@ -10342,7 +10301,7 @@
         <v>17</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D161" s="3" t="n">
         <v>19</v>
@@ -10351,19 +10310,19 @@
         <v>19</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>30</v>
@@ -10386,7 +10345,7 @@
         <v>19</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>153</v>
@@ -10395,22 +10354,22 @@
         <v>24</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="M162" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>29</v>
@@ -10419,7 +10378,7 @@
         <v>30</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10439,31 +10398,31 @@
         <v>58</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>54</v>
@@ -10472,7 +10431,7 @@
         <v>70</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10492,10 +10451,10 @@
         <v>19</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>24</v>
@@ -10507,16 +10466,16 @@
         <v>35</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10539,22 +10498,22 @@
         <v>159</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>24</v>
@@ -10583,34 +10542,34 @@
         <v>19</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>174</v>
@@ -10636,31 +10595,31 @@
         <v>19</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>29</v>
@@ -10669,7 +10628,7 @@
         <v>86</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,7 +10661,7 @@
         <v>35</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="M168" s="3" t="s">
         <v>27</v>
@@ -10731,13 +10690,13 @@
         <v>19</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>85</v>
@@ -10746,7 +10705,7 @@
         <v>24</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>118</v>
@@ -10769,7 +10728,7 @@
         <v>56</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D170" s="3" t="n">
         <v>18</v>
@@ -10778,38 +10737,38 @@
         <v>144</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="O170" s="3" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10829,10 +10788,10 @@
         <v>58</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>24</v>
@@ -10841,19 +10800,19 @@
         <v>101</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>54</v>
@@ -10862,7 +10821,7 @@
         <v>86</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10873,7 +10832,7 @@
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="D172" s="3" t="n">
         <v>19</v>
@@ -10885,19 +10844,19 @@
         <v>83</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="J172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>260</v>
@@ -10929,31 +10888,31 @@
         <v>19</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>29</v>

--- a/Consumo_Cultural_en_Cuba.xlsx
+++ b/Consumo_Cultural_en_Cuba.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="848">
   <si>
     <t xml:space="preserve">Marca temporal</t>
   </si>
@@ -841,9 +841,6 @@
     <t xml:space="preserve">Piratas del Caribe </t>
   </si>
   <si>
-    <t xml:space="preserve">Agatha Christie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Miguel Ángel</t>
   </si>
   <si>
@@ -1261,7 +1258,7 @@
     <t xml:space="preserve">Ficción, Fantasía, Misterio, Suspenso, Romance, Policíaco </t>
   </si>
   <si>
-    <t xml:space="preserve">Colleen Hoover ,  Agatha Christie </t>
+    <t xml:space="preserve">Colleen Hoover ,  Ágatha Christie </t>
   </si>
   <si>
     <t xml:space="preserve">Claude Monet </t>
@@ -1700,9 +1697,6 @@
   </si>
   <si>
     <t xml:space="preserve">Taylor Swift </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ágatha Christie </t>
   </si>
   <si>
     <t xml:space="preserve">Rock, Reggaetón, Pop, Blues</t>
@@ -2689,13 +2683,13 @@
   </sheetPr>
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N175" activeCellId="0" sqref="N175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="N176" activeCellId="0" sqref="N176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="70.99"/>
@@ -4847,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>29</v>
@@ -4856,7 +4850,7 @@
         <v>70</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,26 +4873,26 @@
         <v>177</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>229</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>128</v>
@@ -4927,25 +4921,25 @@
         <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>38</v>
@@ -4960,7 +4954,7 @@
         <v>30</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,10 +4974,10 @@
         <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>22</v>
@@ -4992,14 +4986,14 @@
         <v>137</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
@@ -5009,7 +5003,7 @@
         <v>30</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5026,7 @@
         <v>152</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -5044,7 +5038,7 @@
         <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>72</v>
@@ -5053,7 +5047,7 @@
         <v>24</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>29</v>
@@ -5070,7 +5064,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>20</v>
@@ -5079,7 +5073,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>204</v>
@@ -5088,13 +5082,13 @@
         <v>205</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>24</v>
@@ -5105,31 +5099,31 @@
         <v>45480.4880751157</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D52" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>24</v>
@@ -5141,7 +5135,7 @@
         <v>86</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,10 +5143,10 @@
         <v>45480.4881459607</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>19</v>
@@ -5161,10 +5155,10 @@
         <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>24</v>
@@ -5176,7 +5170,7 @@
         <v>24</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>189</v>
@@ -5188,13 +5182,13 @@
         <v>53</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,22 +5208,22 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,19 +5246,19 @@
         <v>264</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>82</v>
@@ -5293,13 +5287,13 @@
         <v>58</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>49</v>
@@ -5308,7 +5302,7 @@
         <v>155</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>27</v>
@@ -5322,10 +5316,10 @@
         <v>45480.4931806597</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>21</v>
@@ -5334,31 +5328,31 @@
         <v>19</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>253</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M57" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N57" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>29</v>
@@ -5375,10 +5369,10 @@
         <v>45480.4933693981</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>21</v>
@@ -5387,19 +5381,19 @@
         <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -5416,10 +5410,10 @@
         <v>45480.4946498264</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>23</v>
@@ -5435,16 +5429,16 @@
         <v>24</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>24</v>
@@ -5456,7 +5450,7 @@
         <v>70</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,7 +5461,7 @@
         <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>20</v>
@@ -5476,13 +5470,13 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>49</v>
@@ -5491,13 +5485,13 @@
         <v>200</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>54</v>
@@ -5506,7 +5500,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,10 +5508,10 @@
         <v>45480.4952953009</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>18</v>
@@ -5526,10 +5520,10 @@
         <v>19</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>87</v>
@@ -5541,16 +5535,16 @@
         <v>35</v>
       </c>
       <c r="K61" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>29</v>
@@ -5559,7 +5553,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,10 +5561,10 @@
         <v>45480.5128145718</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>25</v>
@@ -5582,28 +5576,28 @@
         <v>203</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>118</v>
       </c>
       <c r="M62" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>54</v>
@@ -5612,7 +5606,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,7 +5617,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>18</v>
@@ -5635,19 +5629,19 @@
         <v>264</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>228</v>
@@ -5682,28 +5676,28 @@
         <v>203</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,10 +5717,10 @@
         <v>19</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>22</v>
@@ -5747,7 +5741,7 @@
         <v>24</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>29</v>
@@ -5756,7 +5750,7 @@
         <v>86</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,7 +5761,7 @@
         <v>224</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>21</v>
@@ -5776,25 +5770,25 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="L66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>141</v>
@@ -5806,7 +5800,7 @@
         <v>30</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,7 +5811,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>21</v>
@@ -5826,22 +5820,22 @@
         <v>66</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L67" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,19 +5855,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>24</v>
@@ -5902,10 +5896,10 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>24</v>
@@ -5917,16 +5911,16 @@
         <v>35</v>
       </c>
       <c r="K69" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>29</v>
@@ -5943,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>18</v>
@@ -5955,7 +5949,7 @@
         <v>258</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>24</v>
@@ -5967,10 +5961,10 @@
         <v>24</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>27</v>
@@ -5983,7 +5977,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,7 +5997,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>87</v>
@@ -6015,7 +6009,7 @@
         <v>35</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>24</v>
@@ -6057,16 +6051,16 @@
         <v>24</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>29</v>
@@ -6075,7 +6069,7 @@
         <v>70</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,10 +6077,10 @@
         <v>45480.5472392361</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>21</v>
@@ -6098,7 +6092,7 @@
         <v>270</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>24</v>
@@ -6110,10 +6104,10 @@
         <v>35</v>
       </c>
       <c r="K73" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>38</v>
@@ -6137,7 +6131,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>20</v>
@@ -6146,10 +6140,10 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>87</v>
@@ -6161,7 +6155,7 @@
         <v>49</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>27</v>
@@ -6190,31 +6184,31 @@
         <v>66</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>172</v>
       </c>
       <c r="L75" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>29</v>
@@ -6223,7 +6217,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,22 +6246,22 @@
         <v>24</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K76" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>29</v>
@@ -6284,10 +6278,10 @@
         <v>45480.5577299884</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="D77" s="3" t="n">
         <v>21</v>
@@ -6296,10 +6290,10 @@
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>87</v>
@@ -6311,7 +6305,7 @@
         <v>35</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,10 +6313,10 @@
         <v>45480.5598228009</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>23</v>
@@ -6331,10 +6325,10 @@
         <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>24</v>
@@ -6343,19 +6337,19 @@
         <v>121</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>29</v>
@@ -6364,7 +6358,7 @@
         <v>86</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,7 +6381,7 @@
         <v>83</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>22</v>
@@ -6396,7 +6390,7 @@
         <v>85</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
@@ -6426,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>177</v>
@@ -6441,7 +6435,7 @@
         <v>35</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>26</v>
@@ -6450,7 +6444,7 @@
         <v>24</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>29</v>
@@ -6459,7 +6453,7 @@
         <v>30</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,7 +6470,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>108</v>
@@ -6494,7 +6488,7 @@
         <v>38</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>29</v>
@@ -6523,28 +6517,28 @@
         <v>177</v>
       </c>
       <c r="G82" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K82" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="M82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>128</v>
@@ -6553,7 +6547,7 @@
         <v>86</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6564,7 +6558,7 @@
         <v>17</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>20</v>
@@ -6573,22 +6567,22 @@
         <v>19</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G83" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>132</v>
@@ -6597,7 +6591,7 @@
         <v>24</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>29</v>
@@ -6606,7 +6600,7 @@
         <v>30</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,25 +6611,25 @@
         <v>224</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D84" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>24</v>
@@ -6644,22 +6638,22 @@
         <v>207</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="O84" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,23 +6673,23 @@
         <v>19</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>247</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>24</v>
@@ -6705,7 +6699,7 @@
         <v>29</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6716,16 +6710,16 @@
         <v>17</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="D86" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>153</v>
@@ -6740,7 +6734,7 @@
         <v>24</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>26</v>
@@ -6749,7 +6743,7 @@
         <v>27</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>29</v>
@@ -6775,7 +6769,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>235</v>
@@ -6784,7 +6778,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>35</v>
@@ -6793,13 +6787,13 @@
         <v>200</v>
       </c>
       <c r="L87" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="M87" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="M87" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="N87" s="3" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>29</v>
@@ -6828,31 +6822,31 @@
         <v>19</v>
       </c>
       <c r="F88" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K88" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,16 +6857,16 @@
         <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="D89" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>198</v>
@@ -6887,7 +6881,7 @@
         <v>35</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,10 +6889,10 @@
         <v>45480.597584838</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>20</v>
@@ -6907,22 +6901,22 @@
         <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I90" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>29</v>
@@ -6948,25 +6942,25 @@
         <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K91" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>24</v>
@@ -6978,7 +6972,7 @@
         <v>30</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,19 +6992,19 @@
         <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>24</v>
@@ -7036,25 +7030,25 @@
         <v>58</v>
       </c>
       <c r="F93" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="M93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>29</v>
@@ -7086,13 +7080,13 @@
         <v>87</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>38</v>
@@ -7121,31 +7115,31 @@
         <v>19</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>29</v>
@@ -7162,7 +7156,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>19</v>
@@ -7174,22 +7168,22 @@
         <v>177</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K96" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="L96" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>38</v>
@@ -7204,7 +7198,7 @@
         <v>30</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7209,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D97" s="3" t="n">
         <v>20</v>
@@ -7224,10 +7218,10 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>24</v>
@@ -7242,19 +7236,19 @@
         <v>207</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q97" s="3" t="s">
         <v>165</v>
@@ -7265,7 +7259,7 @@
         <v>45480.6292693866</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>134</v>
@@ -7277,29 +7271,29 @@
         <v>19</v>
       </c>
       <c r="F98" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,7 +7304,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D99" s="3" t="n">
         <v>20</v>
@@ -7319,28 +7313,28 @@
         <v>58</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K99" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="L99" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="L99" s="3" t="s">
+      <c r="M99" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="N99" s="3" t="s">
         <v>164</v>
@@ -7352,7 +7346,7 @@
         <v>86</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,16 +7375,16 @@
         <v>101</v>
       </c>
       <c r="J100" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>29</v>
@@ -7407,7 +7401,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>20</v>
@@ -7416,19 +7410,19 @@
         <v>19</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>40</v>
@@ -7442,7 +7436,7 @@
         <v>98</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>19</v>
@@ -7451,31 +7445,31 @@
         <v>144</v>
       </c>
       <c r="F102" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I102" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="J102" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>29</v>
@@ -7484,7 +7478,7 @@
         <v>70</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,28 +7498,28 @@
         <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>200</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>174</v>
@@ -7534,7 +7528,7 @@
         <v>86</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,7 +7551,7 @@
         <v>177</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>24</v>
@@ -7569,7 +7563,7 @@
         <v>35</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>126</v>
@@ -7604,7 +7598,7 @@
         <v>19</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>80</v>
@@ -7613,22 +7607,22 @@
         <v>24</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K105" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="L105" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="M105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N105" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>29</v>
@@ -7637,7 +7631,7 @@
         <v>30</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7663,7 +7657,7 @@
         <v>205</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>35</v>
@@ -7695,16 +7689,16 @@
         <v>58</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="H107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>24</v>
@@ -7719,7 +7713,7 @@
         <v>24</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>560</v>
+        <v>209</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>29</v>
@@ -7745,31 +7739,31 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>29</v>
@@ -7798,7 +7792,7 @@
         <v>177</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>87</v>
@@ -7810,10 +7804,10 @@
         <v>35</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>38</v>
@@ -7828,7 +7822,7 @@
         <v>40</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,10 +7842,10 @@
         <v>58</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>87</v>
@@ -7863,16 +7857,16 @@
         <v>35</v>
       </c>
       <c r="K110" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="M110" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="L110" s="3" t="s">
+      <c r="N110" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>29</v>
@@ -7881,7 +7875,7 @@
         <v>30</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7892,7 +7886,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>19</v>
@@ -7901,28 +7895,28 @@
         <v>19</v>
       </c>
       <c r="F111" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>54</v>
@@ -7945,22 +7939,22 @@
         <v>19</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I112" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>126</v>
@@ -7969,7 +7963,7 @@
         <v>24</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>29</v>
@@ -7986,7 +7980,7 @@
         <v>17</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>19</v>
@@ -7995,16 +7989,16 @@
         <v>19</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>35</v>
@@ -8031,13 +8025,13 @@
         <v>24</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>189</v>
@@ -8053,7 +8047,7 @@
         <v>30</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,19 +8070,19 @@
         <v>225</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>26</v>
@@ -8097,7 +8091,7 @@
         <v>27</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>29</v>
@@ -8106,7 +8100,7 @@
         <v>40</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,7 +8120,7 @@
         <v>19</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>235</v>
@@ -8135,16 +8129,16 @@
         <v>24</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>38</v>
@@ -8157,7 +8151,7 @@
         <v>86</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,31 +8171,31 @@
         <v>66</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K117" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N117" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>29</v>
@@ -8221,7 +8215,7 @@
         <v>17</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>19</v>
@@ -8230,10 +8224,10 @@
         <v>66</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>24</v>
@@ -8245,7 +8239,7 @@
         <v>49</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>26</v>
@@ -8254,7 +8248,7 @@
         <v>27</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>128</v>
@@ -8280,19 +8274,19 @@
         <v>66</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>38</v>
@@ -8312,7 +8306,7 @@
         <v>17</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>21</v>
@@ -8321,22 +8315,22 @@
         <v>19</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>82</v>
@@ -8345,7 +8339,7 @@
         <v>24</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>29</v>
@@ -8415,10 +8409,10 @@
         <v>19</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>22</v>
@@ -8430,16 +8424,16 @@
         <v>247</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>29</v>
@@ -8448,7 +8442,7 @@
         <v>40</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,10 +8450,10 @@
         <v>45480.9040375579</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D123" s="3" t="n">
         <v>18</v>
@@ -8471,28 +8465,28 @@
         <v>203</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K123" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N123" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N123" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>128</v>
@@ -8501,7 +8495,7 @@
         <v>30</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8521,16 +8515,16 @@
         <v>19</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>24</v>
@@ -8539,13 +8533,13 @@
         <v>125</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>29</v>
@@ -8554,7 +8548,7 @@
         <v>86</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,10 +8556,10 @@
         <v>45480.9534758796</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>20</v>
@@ -8577,19 +8571,19 @@
         <v>177</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>256</v>
@@ -8598,7 +8592,7 @@
         <v>27</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>29</v>
@@ -8607,7 +8601,7 @@
         <v>30</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8615,10 +8609,10 @@
         <v>45480.9560073032</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>20</v>
@@ -8630,7 +8624,7 @@
         <v>177</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>24</v>
@@ -8642,16 +8636,16 @@
         <v>35</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>29</v>
@@ -8683,7 +8677,7 @@
         <v>177</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>24</v>
@@ -8695,7 +8689,7 @@
         <v>49</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>72</v>
@@ -8704,7 +8698,7 @@
         <v>38</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>29</v>
@@ -8730,31 +8724,31 @@
         <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I128" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="K128" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="L128" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>29</v>
@@ -8780,25 +8774,25 @@
         <v>66</v>
       </c>
       <c r="F129" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>38</v>
@@ -8827,10 +8821,10 @@
         <v>19</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>24</v>
@@ -8842,10 +8836,10 @@
         <v>35</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M130" s="3" t="s">
         <v>38</v>
@@ -8857,7 +8851,7 @@
         <v>86</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,10 +8883,10 @@
         <v>35</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>128</v>
@@ -8918,26 +8912,26 @@
         <v>66</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N132" s="3"/>
       <c r="O132" s="3" t="s">
@@ -8973,10 +8967,10 @@
         <v>87</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>27</v>
@@ -9011,16 +9005,16 @@
         <v>22</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>24</v>
@@ -9034,7 +9028,7 @@
         <v>17</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>19</v>
@@ -9043,31 +9037,31 @@
         <v>19</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>29</v>
@@ -9076,7 +9070,7 @@
         <v>40</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9084,10 +9078,10 @@
         <v>45481.4597159144</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>22</v>
@@ -9099,13 +9093,13 @@
         <v>177</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>49</v>
@@ -9133,10 +9127,10 @@
         <v>45481.4707015394</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>23</v>
@@ -9145,31 +9139,31 @@
         <v>19</v>
       </c>
       <c r="F137" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="J137" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K137" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I137" s="3" t="s">
+      <c r="L137" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>29</v>
@@ -9178,7 +9172,7 @@
         <v>30</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9186,10 +9180,10 @@
         <v>45481.4747049074</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>21</v>
@@ -9198,10 +9192,10 @@
         <v>19</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>87</v>
@@ -9213,10 +9207,10 @@
         <v>49</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>27</v>
@@ -9248,25 +9242,25 @@
         <v>177</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>185</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="N139" s="3"/>
     </row>
@@ -9287,31 +9281,31 @@
         <v>144</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M140" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>29</v>
@@ -9325,10 +9319,10 @@
         <v>45481.7916117593</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>20</v>
@@ -9337,7 +9331,7 @@
         <v>19</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
@@ -9350,13 +9344,13 @@
         <v>24</v>
       </c>
       <c r="K141" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="M141" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="N141" s="3"/>
       <c r="O141" s="3" t="s">
@@ -9366,7 +9360,7 @@
         <v>30</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9374,10 +9368,10 @@
         <v>45481.7933557176</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>20</v>
@@ -9386,10 +9380,10 @@
         <v>19</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>24</v>
@@ -9398,19 +9392,19 @@
         <v>69</v>
       </c>
       <c r="J142" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="L142" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="M142" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>29</v>
@@ -9419,7 +9413,7 @@
         <v>40</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,10 +9433,10 @@
         <v>58</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>22</v>
@@ -9454,7 +9448,7 @@
         <v>58</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>72</v>
@@ -9463,7 +9457,7 @@
         <v>38</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>29</v>
@@ -9472,7 +9466,7 @@
         <v>30</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9483,7 +9477,7 @@
         <v>17</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>20</v>
@@ -9507,7 +9501,7 @@
         <v>35</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>26</v>
@@ -9516,7 +9510,7 @@
         <v>24</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>54</v>
@@ -9525,7 +9519,7 @@
         <v>86</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9536,7 +9530,7 @@
         <v>98</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>18</v>
@@ -9548,16 +9542,16 @@
         <v>159</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3" t="s">
@@ -9567,7 +9561,7 @@
         <v>38</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>29</v>
@@ -9576,7 +9570,7 @@
         <v>70</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,10 +9578,10 @@
         <v>45482.3995232639</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>20</v>
@@ -9599,28 +9593,28 @@
         <v>264</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K146" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N146" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="M146" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N146" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9631,7 +9625,7 @@
         <v>17</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>23</v>
@@ -9640,10 +9634,10 @@
         <v>19</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>87</v>
@@ -9652,19 +9646,19 @@
         <v>109</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>29</v>
@@ -9687,10 +9681,10 @@
         <v>21</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>68</v>
@@ -9699,19 +9693,19 @@
         <v>22</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>29</v>
@@ -9720,7 +9714,7 @@
         <v>30</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9731,7 +9725,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>19</v>
@@ -9740,16 +9734,16 @@
         <v>19</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>24</v>
@@ -9763,7 +9757,7 @@
         <v>17</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>21</v>
@@ -9772,10 +9766,10 @@
         <v>66</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>87</v>
@@ -9787,16 +9781,16 @@
         <v>24</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>229</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>29</v>
@@ -9805,7 +9799,7 @@
         <v>40</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9825,38 +9819,38 @@
         <v>58</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>77</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,7 +9861,7 @@
         <v>17</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>20</v>
@@ -9876,7 +9870,7 @@
         <v>19</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>24</v>
@@ -9914,31 +9908,31 @@
         <v>58</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M153" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>29</v>
@@ -9947,7 +9941,7 @@
         <v>40</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9958,7 +9952,7 @@
         <v>17</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D154" s="3" t="n">
         <v>24</v>
@@ -9967,25 +9961,25 @@
         <v>58</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I154" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="L154" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>38</v>
@@ -10000,7 +9994,7 @@
         <v>30</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10008,10 +10002,10 @@
         <v>45482.4192383796</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D155" s="3" t="n">
         <v>20</v>
@@ -10023,22 +10017,22 @@
         <v>203</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M155" s="3" t="s">
         <v>24</v>
@@ -10067,10 +10061,10 @@
         <v>58</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>24</v>
@@ -10082,7 +10076,7 @@
         <v>70</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M156" s="3" t="s">
         <v>229</v>
@@ -10094,7 +10088,7 @@
         <v>30</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,28 +10111,28 @@
         <v>232</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M157" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>54</v>
@@ -10147,7 +10141,7 @@
         <v>70</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10170,7 +10164,7 @@
         <v>20</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>24</v>
@@ -10182,16 +10176,16 @@
         <v>24</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,7 +10196,7 @@
         <v>17</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>21</v>
@@ -10211,23 +10205,23 @@
         <v>58</v>
       </c>
       <c r="F159" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="J159" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>785</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M159" s="3" t="s">
         <v>24</v>
@@ -10240,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,7 +10245,7 @@
         <v>17</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>23</v>
@@ -10260,31 +10254,31 @@
         <v>58</v>
       </c>
       <c r="F160" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K160" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>789</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>29</v>
@@ -10301,7 +10295,7 @@
         <v>17</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D161" s="3" t="n">
         <v>19</v>
@@ -10310,19 +10304,19 @@
         <v>19</v>
       </c>
       <c r="F161" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K161" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>30</v>
@@ -10345,7 +10339,7 @@
         <v>19</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>153</v>
@@ -10354,22 +10348,22 @@
         <v>24</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M162" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>29</v>
@@ -10378,7 +10372,7 @@
         <v>30</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10398,31 +10392,31 @@
         <v>58</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>54</v>
@@ -10431,7 +10425,7 @@
         <v>70</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10451,10 +10445,10 @@
         <v>19</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>24</v>
@@ -10466,16 +10460,16 @@
         <v>35</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10498,22 +10492,22 @@
         <v>159</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>24</v>
@@ -10542,34 +10536,34 @@
         <v>19</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>174</v>
@@ -10595,31 +10589,31 @@
         <v>19</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>29</v>
@@ -10628,7 +10622,7 @@
         <v>86</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,7 +10655,7 @@
         <v>35</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="M168" s="3" t="s">
         <v>27</v>
@@ -10690,10 +10684,10 @@
         <v>19</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>87</v>
@@ -10705,7 +10699,7 @@
         <v>24</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>118</v>
@@ -10728,7 +10722,7 @@
         <v>56</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D170" s="3" t="n">
         <v>18</v>
@@ -10737,38 +10731,38 @@
         <v>144</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="O170" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N170" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="O170" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10788,10 +10782,10 @@
         <v>58</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>24</v>
@@ -10800,19 +10794,19 @@
         <v>101</v>
       </c>
       <c r="J171" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="L171" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>54</v>
@@ -10821,7 +10815,7 @@
         <v>86</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,7 +10826,7 @@
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D172" s="3" t="n">
         <v>19</v>
@@ -10844,19 +10838,19 @@
         <v>83</v>
       </c>
       <c r="G172" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K172" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>260</v>
@@ -10888,31 +10882,31 @@
         <v>19</v>
       </c>
       <c r="F173" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>847</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>29</v>
